--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32295" windowHeight="17970" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="32295" windowHeight="17970" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="工时记录" sheetId="12" state="hidden" r:id="rId9"/>
     <sheet name="临时截图" sheetId="17" r:id="rId10"/>
     <sheet name="Sheet1" sheetId="19" r:id="rId11"/>
+    <sheet name="设置restful xdebug" sheetId="20" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -15899,22 +15900,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3" tint="-0.25"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -15932,12 +15920,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -15945,8 +15927,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -16882,6 +16883,263 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="209550"/>
+          <a:ext cx="23993475" cy="11896725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12992100"/>
+          <a:ext cx="13458825" cy="7477125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20955000"/>
+          <a:ext cx="12839700" cy="8677275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="12458700"/>
+          <a:ext cx="8105775" cy="6677025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29965650"/>
+          <a:ext cx="21231225" cy="5019675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="35204400"/>
+          <a:ext cx="12411075" cy="3286125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -17353,6 +17611,23 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -18367,8 +18642,8 @@
   <sheetPr/>
   <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32295" windowHeight="17970" firstSheet="1" activeTab="11"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="501">
   <si>
     <t>MRO - 产品清单页面增加到货数和到货率统计</t>
   </si>
@@ -10770,6 +10770,42 @@
         <charset val="134"/>
       </rPr>
       <t>查询数据</t>
+    </r>
+  </si>
+  <si>
+    <t>拉取镜像</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Chilanka"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1.wget http://gz.tools.ux168.cn/tools/it_group/system_softwares/scripts/docker/docker_pull.sh
+2.chmod 777 docker_pull.sh
+3../docker_pull.sh
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镜像名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Chilanka"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dockerimages-v2.ux168.cn:5000/nginx-vsftpd:latest 
+dockerimages-v2.ux168.cn:5000/nginx-php7:latest</t>
     </r>
   </si>
   <si>
@@ -15914,16 +15950,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15940,15 +15981,10 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="AR PL UKai CN"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -16581,9 +16617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4250690</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>928370</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16600,8 +16636,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6698615" y="42837100"/>
-          <a:ext cx="8183245" cy="2533650"/>
+          <a:off x="3572510" y="46523275"/>
+          <a:ext cx="6348095" cy="2533650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16623,9 +16659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3724275</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>2097405</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>962025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16642,8 +16678,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6765290" y="72745600"/>
-          <a:ext cx="3657600" cy="1181100"/>
+          <a:off x="3639185" y="82804000"/>
+          <a:ext cx="2030730" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16664,10 +16700,10 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1194435</xdr:colOff>
-      <xdr:row>300</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3126105</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16684,8 +16720,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6670040" y="100844350"/>
-          <a:ext cx="26873835" cy="4124325"/>
+          <a:off x="3572510" y="116332000"/>
+          <a:ext cx="14366240" cy="4124325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16714,7 +16750,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16730,7 +16766,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1750060" y="32689800"/>
+          <a:off x="933450" y="42338625"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16757,10 +16793,10 @@
       <xdr:rowOff>106045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>989330</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>143510</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16777,8 +16813,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="810260" y="3668395"/>
-          <a:ext cx="11751945" cy="5904865"/>
+          <a:off x="685800" y="3344545"/>
+          <a:ext cx="6172200" cy="5904865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16801,8 +16837,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16820,7 +16856,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19935825" cy="3200400"/>
+          <a:ext cx="10934700" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16846,10 +16882,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16866,8 +16902,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="2724150"/>
-          <a:ext cx="10353675" cy="10877550"/>
+          <a:off x="2072640" y="2476500"/>
+          <a:ext cx="5527040" cy="10877550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16895,8 +16931,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16913,8 +16949,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="209550"/>
-          <a:ext cx="23993475" cy="11896725"/>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="13112115" cy="11896725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16937,8 +16973,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16955,8 +16991,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12992100"/>
-          <a:ext cx="13458825" cy="7477125"/>
+          <a:off x="0" y="11811000"/>
+          <a:ext cx="7413625" cy="7477125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16977,10 +17013,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16997,8 +17033,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20955000"/>
-          <a:ext cx="12839700" cy="8677275"/>
+          <a:off x="0" y="19050000"/>
+          <a:ext cx="6908800" cy="8677275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17021,8 +17057,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17039,8 +17075,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7677150" y="12458700"/>
-          <a:ext cx="8105775" cy="6677025"/>
+          <a:off x="4145280" y="11334750"/>
+          <a:ext cx="4383405" cy="6677025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17063,8 +17099,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17081,8 +17117,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="29965650"/>
-          <a:ext cx="21231225" cy="5019675"/>
+          <a:off x="0" y="27241500"/>
+          <a:ext cx="11558905" cy="5019675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17103,10 +17139,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17123,8 +17159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="35204400"/>
-          <a:ext cx="12411075" cy="3286125"/>
+          <a:off x="0" y="32004000"/>
+          <a:ext cx="6908800" cy="3286125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17433,11 +17469,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="42.2488888888889" customWidth="1"/>
-    <col min="2" max="2" width="81.2488888888889" customWidth="1"/>
-    <col min="3" max="3" width="13.2488888888889" customWidth="1"/>
+    <col min="1" max="1" width="42.25" customWidth="1"/>
+    <col min="2" max="2" width="81.25" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="15" spans="1:3">
@@ -17488,7 +17524,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -17509,7 +17545,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -17616,11 +17652,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -17633,18 +17669,18 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.7511111111111" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.1333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.5244444444444" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.3822222222222" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="58.3833333333333" style="2" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="66.6266666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="66.625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -17664,7 +17700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="33" spans="2:3">
+    <row r="3" ht="37.5" spans="2:3">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -17726,7 +17762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="99" spans="2:7">
+    <row r="12" ht="131.25" spans="2:7">
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
@@ -17745,7 +17781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="49.5" spans="2:3">
+    <row r="18" ht="56.25" spans="2:3">
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
@@ -17790,7 +17826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" ht="132" spans="2:4">
+    <row r="26" ht="150" spans="2:4">
       <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
@@ -17834,7 +17870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" ht="49.5" spans="2:3">
+    <row r="36" ht="56.25" spans="2:3">
       <c r="B36" s="2" t="s">
         <v>51</v>
       </c>
@@ -17864,7 +17900,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" ht="376.5" spans="2:4">
+    <row r="48" ht="313.5" spans="2:4">
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
@@ -17981,7 +18017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" ht="33" spans="2:3">
+    <row r="72" ht="37.5" spans="2:3">
       <c r="B72" s="2" t="s">
         <v>74</v>
       </c>
@@ -18065,7 +18101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" ht="49.5" spans="2:3">
+    <row r="95" ht="56.25" spans="2:3">
       <c r="B95" s="2" t="s">
         <v>94</v>
       </c>
@@ -18096,7 +18132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" ht="66" spans="2:2">
+    <row r="109" ht="112.5" spans="2:2">
       <c r="B109" s="6" t="s">
         <v>101</v>
       </c>
@@ -18382,7 +18418,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="215" ht="96" spans="2:3">
+    <row r="215" ht="158.25" spans="2:3">
       <c r="B215" s="6" t="s">
         <v>162</v>
       </c>
@@ -18400,7 +18436,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="221" ht="214.5" spans="2:7">
+    <row r="221" ht="243.75" spans="2:7">
       <c r="B221" s="15" t="s">
         <v>166</v>
       </c>
@@ -18414,7 +18450,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="222" ht="244.5" spans="2:4">
+    <row r="222" ht="409.5" spans="2:4">
       <c r="B222" s="30" t="s">
         <v>170</v>
       </c>
@@ -18425,12 +18461,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="226" ht="66" spans="2:2">
+    <row r="226" ht="131.25" spans="2:2">
       <c r="B226" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="229" ht="33" spans="1:2">
+    <row r="229" ht="37.5" spans="1:2">
       <c r="A229" s="31" t="s">
         <v>174</v>
       </c>
@@ -18491,7 +18527,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="258" ht="198" spans="2:2">
+    <row r="258" ht="313.5" spans="2:2">
       <c r="B258" s="6" t="s">
         <v>188</v>
       </c>
@@ -18512,7 +18548,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="264" ht="49.5" spans="1:2">
+    <row r="264" ht="56.25" spans="1:2">
       <c r="A264" s="2" t="s">
         <v>193</v>
       </c>
@@ -18525,7 +18561,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="269" ht="231" spans="1:4">
+    <row r="269" ht="356.25" spans="1:4">
       <c r="A269" s="2" t="s">
         <v>196</v>
       </c>
@@ -18640,21 +18676,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O131"/>
+  <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="12.2488888888889" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.1511111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.5244444444444" style="2" customWidth="1"/>
-    <col min="4" max="4" width="76.6177777777778" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.6266666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.1244444444444" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.6488888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.525" style="2" customWidth="1"/>
+    <col min="4" max="4" width="76.6166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.65" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -19027,7 +19063,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" ht="33" spans="2:7">
+    <row r="28" ht="37.5" spans="2:7">
       <c r="B28" s="6" t="s">
         <v>258</v>
       </c>
@@ -19043,7 +19079,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="30" ht="33" spans="2:4">
+    <row r="30" ht="93.75" spans="2:4">
       <c r="B30" s="6" t="s">
         <v>261</v>
       </c>
@@ -19069,7 +19105,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" ht="66" spans="2:4">
+    <row r="34" ht="75" spans="2:4">
       <c r="B34" s="2" t="s">
         <v>267</v>
       </c>
@@ -19086,7 +19122,7 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" ht="66" spans="7:7">
+    <row r="37" ht="93.75" spans="7:7">
       <c r="G37" s="6" t="s">
         <v>270</v>
       </c>
@@ -19147,7 +19183,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="49" ht="33" spans="2:2">
+    <row r="49" ht="75" spans="2:2">
       <c r="B49" s="6" t="s">
         <v>283</v>
       </c>
@@ -19316,7 +19352,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="94" ht="66" spans="2:3">
+    <row r="94" ht="112.5" spans="2:3">
       <c r="B94" s="6" t="s">
         <v>311</v>
       </c>
@@ -19324,7 +19360,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" ht="148.5" spans="2:4">
+    <row r="97" ht="240" spans="2:4">
       <c r="B97" s="6" t="s">
         <v>313</v>
       </c>
@@ -19335,7 +19371,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="98" ht="181.5" spans="2:4">
+    <row r="98" ht="262.5" spans="2:4">
       <c r="B98" s="6" t="s">
         <v>316</v>
       </c>
@@ -19351,7 +19387,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="105" ht="231" spans="3:4">
+    <row r="105" ht="393.75" spans="3:4">
       <c r="C105" s="6" t="s">
         <v>320</v>
       </c>
@@ -19431,7 +19467,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="129" ht="165" spans="2:4">
+    <row r="129" ht="300" spans="2:4">
       <c r="B129" s="19" t="s">
         <v>328</v>
       </c>
@@ -19439,9 +19475,19 @@
         <v>329</v>
       </c>
     </row>
-    <row r="131" ht="82.5" spans="2:2">
+    <row r="131" ht="110.25" spans="2:2">
       <c r="B131" s="6" t="s">
         <v>330</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" ht="225" spans="3:3">
+      <c r="C134" s="6" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -19479,7 +19525,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="92.8" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -19489,75 +19535,75 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" ht="286.5" spans="1:3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" ht="356.25" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="17" ht="115.5" spans="1:1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" ht="131.25" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="19" ht="198" spans="1:1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" ht="225" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" ht="99" spans="1:1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" ht="112.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -19575,35 +19621,35 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.2488888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="142" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5022222222222" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.8755555555556" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -19611,7 +19657,7 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -19619,7 +19665,7 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C4" s="9">
         <v>0.8</v>
@@ -19627,7 +19673,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -19635,7 +19681,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -19643,15 +19689,15 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
@@ -19659,7 +19705,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -19677,105 +19723,105 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="36" style="2" customWidth="1"/>
-    <col min="2" max="2" width="63.7511111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="66.5022222222222" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.1244444444444" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.2488888888889" style="2" customWidth="1"/>
+    <col min="2" max="2" width="63.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="66.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="7" ht="33" spans="2:2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" ht="37.5" spans="2:2">
       <c r="B7" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="4:4">
@@ -19783,352 +19829,352 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="45" ht="18" spans="2:2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
       <c r="B45" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="53" ht="33" spans="2:3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" ht="56.25" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="58" ht="17.25" spans="2:2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
       <c r="B58" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -20156,53 +20202,53 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.3733333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="18.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="18.75" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="18.75" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="18.75" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -20221,19 +20267,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="45.7511111111111" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.75" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C2" s="2">
         <v>399</v>
@@ -20241,10 +20287,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C3" s="2">
         <v>549</v>
@@ -20252,10 +20298,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C4" s="2">
         <v>549</v>
@@ -20263,10 +20309,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C5" s="2">
         <v>1500</v>
@@ -20274,10 +20320,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C6" s="2">
         <v>799</v>
@@ -20285,10 +20331,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C7" s="2">
         <v>239</v>
@@ -20296,10 +20342,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C8" s="2">
         <v>269</v>
@@ -20307,10 +20353,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C9" s="2">
         <v>1399</v>
@@ -20318,10 +20364,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C10" s="2">
         <v>2527</v>
@@ -20329,10 +20375,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C11" s="2">
         <v>599</v>
@@ -20340,7 +20386,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4">
@@ -20350,7 +20396,7 @@
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -20368,14 +20414,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="50.8755555555556" customWidth="1"/>
+    <col min="1" max="1" width="50.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B1">
         <v>0.5</v>
@@ -20386,7 +20432,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B2">
         <v>11.5</v>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -15936,21 +15936,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
+      <color rgb="FFFF0000"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
@@ -15962,15 +15968,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15979,13 +15986,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -16916,6 +16916,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>322580</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2959100" y="200025"/>
+          <a:ext cx="13944600" cy="5162550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17541,8 +17583,8 @@
   <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -18678,7 +18720,7 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="10"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -2956,12 +2956,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="AR PL UKai CN"/>
-        <charset val="134"/>
-      </rPr>
       <t>拉取公用项目，只在第一次用到：</t>
     </r>
     <r>
@@ -10777,12 +10771,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Chilanka"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">1.wget http://gz.tools.ux168.cn/tools/it_group/system_softwares/scripts/docker/docker_pull.sh
 2.chmod 777 docker_pull.sh
 3../docker_pull.sh
@@ -17583,7 +17571,7 @@
   <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -17711,8 +17699,8 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -18720,8 +18708,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="502">
   <si>
     <t>MRO - 产品清单页面增加到货数和到货率统计</t>
   </si>
@@ -2956,6 +2956,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="AR PL UKai CN"/>
+        <charset val="134"/>
+      </rPr>
       <t>拉取公用项目，只在第一次用到：</t>
     </r>
     <r>
@@ -10771,6 +10777,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Chilanka"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.wget http://gz.tools.ux168.cn/tools/it_group/system_softwares/scripts/docker/docker_pull.sh
 2.chmod 777 docker_pull.sh
 3../docker_pull.sh
@@ -10795,6 +10807,9 @@
       <t>dockerimages-v2.ux168.cn:5000/nginx-vsftpd:latest 
 dockerimages-v2.ux168.cn:5000/nginx-php7:latest</t>
     </r>
+  </si>
+  <si>
+    <t>dockerimages-v2.ux168.cn:5000/nginx-php7-slim:latest</t>
   </si>
   <si>
     <r>
@@ -15924,16 +15939,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15950,15 +15971,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15969,11 +15985,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -16954,13 +16969,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247015</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -16979,8 +16994,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="13112115" cy="11896725"/>
+          <a:off x="9525" y="190500"/>
+          <a:ext cx="14745970" cy="11896725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17079,16 +17094,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>671830</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17105,8 +17120,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4145280" y="11334750"/>
-          <a:ext cx="4383405" cy="6677025"/>
+          <a:off x="6889750" y="12677775"/>
+          <a:ext cx="8404860" cy="6677025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17682,8 +17697,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32:X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15"/>
@@ -17699,8 +17714,8 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="G222" sqref="G222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -18708,8 +18723,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -19515,9 +19530,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="134" ht="225" spans="3:3">
+    <row r="134" ht="225" spans="3:4">
       <c r="C134" s="6" t="s">
         <v>332</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -19565,75 +19583,75 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" ht="356.25" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" ht="131.25" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" ht="225" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" ht="112.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -19662,24 +19680,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -19687,7 +19705,7 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -19695,7 +19713,7 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C4" s="9">
         <v>0.8</v>
@@ -19703,7 +19721,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -19711,7 +19729,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -19719,15 +19737,15 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
@@ -19735,7 +19753,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -19765,93 +19783,93 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" ht="37.5" spans="2:2">
       <c r="B7" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="4:4">
@@ -19859,352 +19877,352 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" ht="56.25" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -20239,46 +20257,46 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" ht="18.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="18.75" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" ht="18.75" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" ht="18.75" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -20306,10 +20324,10 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C2" s="2">
         <v>399</v>
@@ -20317,10 +20335,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C3" s="2">
         <v>549</v>
@@ -20328,10 +20346,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C4" s="2">
         <v>549</v>
@@ -20339,10 +20357,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C5" s="2">
         <v>1500</v>
@@ -20350,10 +20368,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C6" s="2">
         <v>799</v>
@@ -20361,10 +20379,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C7" s="2">
         <v>239</v>
@@ -20372,10 +20390,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C8" s="2">
         <v>269</v>
@@ -20383,10 +20401,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C9" s="2">
         <v>1399</v>
@@ -20394,10 +20412,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C10" s="2">
         <v>2527</v>
@@ -20405,10 +20423,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C11" s="2">
         <v>599</v>
@@ -20416,7 +20434,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4">
@@ -20426,7 +20444,7 @@
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -20451,7 +20469,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B1">
         <v>0.5</v>
@@ -20462,7 +20480,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B2">
         <v>11.5</v>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="11"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="临时截图" sheetId="17" r:id="rId10"/>
     <sheet name="Sheet1" sheetId="19" r:id="rId11"/>
     <sheet name="设置restful xdebug" sheetId="20" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="21" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="601">
   <si>
     <t>MRO - 产品清单页面增加到货数和到货率统计</t>
   </si>
@@ -5928,7 +5929,7 @@
     <t>[xdebug]
 zend_extension = /usr/lib/php/20210902/xdebug.so
 xdebug.remote_enable=1
-xdebug.remote_host=172.16.29.2
+xdebug.remote_host=172.16.29.23
 xdebug.remote_port=9000
 xdebug.idekey = PHPSTORM</t>
   </si>
@@ -15689,6 +15690,303 @@
   </si>
   <si>
     <t>10083  [袁鹏峰]-PA：新品流程追踪，更换数据源</t>
+  </si>
+  <si>
+    <t>QD202507020007</t>
+  </si>
+  <si>
+    <t>D202507040003</t>
+  </si>
+  <si>
+    <t>D202506300011</t>
+  </si>
+  <si>
+    <t>D202506300009</t>
+  </si>
+  <si>
+    <t>D202506200002</t>
+  </si>
+  <si>
+    <t>D202506230006</t>
+  </si>
+  <si>
+    <t>D202506180003</t>
+  </si>
+  <si>
+    <t>PMO250612011</t>
+  </si>
+  <si>
+    <t>D202506160011</t>
+  </si>
+  <si>
+    <t>D202506100014</t>
+  </si>
+  <si>
+    <t>D202506090011</t>
+  </si>
+  <si>
+    <t>D202506040014</t>
+  </si>
+  <si>
+    <t>D202506040010</t>
+  </si>
+  <si>
+    <t>D202505230006</t>
+  </si>
+  <si>
+    <t>D202505280005</t>
+  </si>
+  <si>
+    <t>D202505280003</t>
+  </si>
+  <si>
+    <t>D202505220008</t>
+  </si>
+  <si>
+    <t>PMO250522009</t>
+  </si>
+  <si>
+    <t>D202505260002</t>
+  </si>
+  <si>
+    <t>D202505230004</t>
+  </si>
+  <si>
+    <t>D202505230002</t>
+  </si>
+  <si>
+    <t>D202505210023</t>
+  </si>
+  <si>
+    <t>D202505200022</t>
+  </si>
+  <si>
+    <t>D202505160001</t>
+  </si>
+  <si>
+    <t>D202505120011</t>
+  </si>
+  <si>
+    <t>D202505190010</t>
+  </si>
+  <si>
+    <t>D202505140006</t>
+  </si>
+  <si>
+    <t>D202504300013</t>
+  </si>
+  <si>
+    <t>D202505140003</t>
+  </si>
+  <si>
+    <t>D202505070007</t>
+  </si>
+  <si>
+    <t>D202504280030</t>
+  </si>
+  <si>
+    <t>D202504180024</t>
+  </si>
+  <si>
+    <t>D202504290021</t>
+  </si>
+  <si>
+    <t>D202504290007</t>
+  </si>
+  <si>
+    <t>D202504140033</t>
+  </si>
+  <si>
+    <t>D202504280021</t>
+  </si>
+  <si>
+    <t>D202504250001</t>
+  </si>
+  <si>
+    <t>D202504230028</t>
+  </si>
+  <si>
+    <t>D202504180010</t>
+  </si>
+  <si>
+    <t>D202504180002</t>
+  </si>
+  <si>
+    <t>D202504160003</t>
+  </si>
+  <si>
+    <t>D202503310009</t>
+  </si>
+  <si>
+    <t>D202504100004</t>
+  </si>
+  <si>
+    <t>D202504090040</t>
+  </si>
+  <si>
+    <t>D202504090027</t>
+  </si>
+  <si>
+    <t>D202504090026</t>
+  </si>
+  <si>
+    <t>D202504080022</t>
+  </si>
+  <si>
+    <t>D202503240020</t>
+  </si>
+  <si>
+    <t>D202504070007</t>
+  </si>
+  <si>
+    <t>D202504020023</t>
+  </si>
+  <si>
+    <t>D202503190002</t>
+  </si>
+  <si>
+    <t>PMO250331003</t>
+  </si>
+  <si>
+    <t>PMO250327002</t>
+  </si>
+  <si>
+    <t>D202503260022</t>
+  </si>
+  <si>
+    <t>PMO250324004</t>
+  </si>
+  <si>
+    <t>D202503250019</t>
+  </si>
+  <si>
+    <t>D202503210007</t>
+  </si>
+  <si>
+    <t>D202502280023</t>
+  </si>
+  <si>
+    <t>D202503050008</t>
+  </si>
+  <si>
+    <t>D202503170019</t>
+  </si>
+  <si>
+    <t>D202503130007</t>
+  </si>
+  <si>
+    <t>D202503070029</t>
+  </si>
+  <si>
+    <t>D202503120010</t>
+  </si>
+  <si>
+    <t>D202503100016</t>
+  </si>
+  <si>
+    <t>D202503040051</t>
+  </si>
+  <si>
+    <t>D202503100005</t>
+  </si>
+  <si>
+    <t>D202502250001</t>
+  </si>
+  <si>
+    <t>D202503070014</t>
+  </si>
+  <si>
+    <t>D202503070005</t>
+  </si>
+  <si>
+    <t>D202503050017</t>
+  </si>
+  <si>
+    <t>D202503030002</t>
+  </si>
+  <si>
+    <t>D202503070022</t>
+  </si>
+  <si>
+    <t>D202503070004</t>
+  </si>
+  <si>
+    <t>D202503070003</t>
+  </si>
+  <si>
+    <t>D202503070002</t>
+  </si>
+  <si>
+    <t>D202503040047</t>
+  </si>
+  <si>
+    <t>D202503040046</t>
+  </si>
+  <si>
+    <t>D202503040001</t>
+  </si>
+  <si>
+    <t>D202503030007</t>
+  </si>
+  <si>
+    <t>D202502280040</t>
+  </si>
+  <si>
+    <t>D202502280011</t>
+  </si>
+  <si>
+    <t>D202502200011</t>
+  </si>
+  <si>
+    <t>D202502250039</t>
+  </si>
+  <si>
+    <t>D202502250022</t>
+  </si>
+  <si>
+    <t>D202501230028</t>
+  </si>
+  <si>
+    <t>D202502240007</t>
+  </si>
+  <si>
+    <t>D202502200010</t>
+  </si>
+  <si>
+    <t>D202502210005</t>
+  </si>
+  <si>
+    <t>D202502190023</t>
+  </si>
+  <si>
+    <t>D202502190021</t>
+  </si>
+  <si>
+    <t>D202502190020</t>
+  </si>
+  <si>
+    <t>D202502190010</t>
+  </si>
+  <si>
+    <t>D202502170033</t>
+  </si>
+  <si>
+    <t>D202502170008</t>
+  </si>
+  <si>
+    <t>D202502140023</t>
+  </si>
+  <si>
+    <t>D202502140022</t>
+  </si>
+  <si>
+    <t>D202502140007</t>
+  </si>
+  <si>
+    <t>D202502080019</t>
+  </si>
+  <si>
+    <t>D202501230017</t>
   </si>
 </sst>
 </file>
@@ -15939,34 +16237,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF212121"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -15985,9 +16270,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="AR PL UKai CN"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -16872,6 +17170,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>191135</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876935" y="1724660"/>
+          <a:ext cx="16992600" cy="7067550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17697,7 +18037,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="T32" sqref="T32:X34"/>
     </sheetView>
   </sheetViews>
@@ -17709,13 +18049,528 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="G222" sqref="G222"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -18723,8 +19578,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -16237,36 +16237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
-      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -16285,7 +16258,34 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -18054,7 +18054,7 @@
   <sheetPr/>
   <dimension ref="A1:A99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -18569,7 +18569,7 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
+    <sheetView topLeftCell="A200" workbookViewId="0">
       <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
@@ -19578,8 +19578,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -16239,12 +16239,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -16256,8 +16256,21 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -16269,23 +16282,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -19578,7 +19578,7 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
@@ -20622,7 +20622,7 @@
   <sheetPr/>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="5"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="临时截图" sheetId="17" r:id="rId10"/>
     <sheet name="Sheet1" sheetId="19" r:id="rId11"/>
     <sheet name="设置restful xdebug" sheetId="20" r:id="rId12"/>
-    <sheet name="Sheet2" sheetId="21" r:id="rId13"/>
+    <sheet name="月进度" sheetId="21" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="502">
   <si>
     <t>MRO - 产品清单页面增加到货数和到货率统计</t>
   </si>
@@ -15690,303 +15690,6 @@
   </si>
   <si>
     <t>10083  [袁鹏峰]-PA：新品流程追踪，更换数据源</t>
-  </si>
-  <si>
-    <t>QD202507020007</t>
-  </si>
-  <si>
-    <t>D202507040003</t>
-  </si>
-  <si>
-    <t>D202506300011</t>
-  </si>
-  <si>
-    <t>D202506300009</t>
-  </si>
-  <si>
-    <t>D202506200002</t>
-  </si>
-  <si>
-    <t>D202506230006</t>
-  </si>
-  <si>
-    <t>D202506180003</t>
-  </si>
-  <si>
-    <t>PMO250612011</t>
-  </si>
-  <si>
-    <t>D202506160011</t>
-  </si>
-  <si>
-    <t>D202506100014</t>
-  </si>
-  <si>
-    <t>D202506090011</t>
-  </si>
-  <si>
-    <t>D202506040014</t>
-  </si>
-  <si>
-    <t>D202506040010</t>
-  </si>
-  <si>
-    <t>D202505230006</t>
-  </si>
-  <si>
-    <t>D202505280005</t>
-  </si>
-  <si>
-    <t>D202505280003</t>
-  </si>
-  <si>
-    <t>D202505220008</t>
-  </si>
-  <si>
-    <t>PMO250522009</t>
-  </si>
-  <si>
-    <t>D202505260002</t>
-  </si>
-  <si>
-    <t>D202505230004</t>
-  </si>
-  <si>
-    <t>D202505230002</t>
-  </si>
-  <si>
-    <t>D202505210023</t>
-  </si>
-  <si>
-    <t>D202505200022</t>
-  </si>
-  <si>
-    <t>D202505160001</t>
-  </si>
-  <si>
-    <t>D202505120011</t>
-  </si>
-  <si>
-    <t>D202505190010</t>
-  </si>
-  <si>
-    <t>D202505140006</t>
-  </si>
-  <si>
-    <t>D202504300013</t>
-  </si>
-  <si>
-    <t>D202505140003</t>
-  </si>
-  <si>
-    <t>D202505070007</t>
-  </si>
-  <si>
-    <t>D202504280030</t>
-  </si>
-  <si>
-    <t>D202504180024</t>
-  </si>
-  <si>
-    <t>D202504290021</t>
-  </si>
-  <si>
-    <t>D202504290007</t>
-  </si>
-  <si>
-    <t>D202504140033</t>
-  </si>
-  <si>
-    <t>D202504280021</t>
-  </si>
-  <si>
-    <t>D202504250001</t>
-  </si>
-  <si>
-    <t>D202504230028</t>
-  </si>
-  <si>
-    <t>D202504180010</t>
-  </si>
-  <si>
-    <t>D202504180002</t>
-  </si>
-  <si>
-    <t>D202504160003</t>
-  </si>
-  <si>
-    <t>D202503310009</t>
-  </si>
-  <si>
-    <t>D202504100004</t>
-  </si>
-  <si>
-    <t>D202504090040</t>
-  </si>
-  <si>
-    <t>D202504090027</t>
-  </si>
-  <si>
-    <t>D202504090026</t>
-  </si>
-  <si>
-    <t>D202504080022</t>
-  </si>
-  <si>
-    <t>D202503240020</t>
-  </si>
-  <si>
-    <t>D202504070007</t>
-  </si>
-  <si>
-    <t>D202504020023</t>
-  </si>
-  <si>
-    <t>D202503190002</t>
-  </si>
-  <si>
-    <t>PMO250331003</t>
-  </si>
-  <si>
-    <t>PMO250327002</t>
-  </si>
-  <si>
-    <t>D202503260022</t>
-  </si>
-  <si>
-    <t>PMO250324004</t>
-  </si>
-  <si>
-    <t>D202503250019</t>
-  </si>
-  <si>
-    <t>D202503210007</t>
-  </si>
-  <si>
-    <t>D202502280023</t>
-  </si>
-  <si>
-    <t>D202503050008</t>
-  </si>
-  <si>
-    <t>D202503170019</t>
-  </si>
-  <si>
-    <t>D202503130007</t>
-  </si>
-  <si>
-    <t>D202503070029</t>
-  </si>
-  <si>
-    <t>D202503120010</t>
-  </si>
-  <si>
-    <t>D202503100016</t>
-  </si>
-  <si>
-    <t>D202503040051</t>
-  </si>
-  <si>
-    <t>D202503100005</t>
-  </si>
-  <si>
-    <t>D202502250001</t>
-  </si>
-  <si>
-    <t>D202503070014</t>
-  </si>
-  <si>
-    <t>D202503070005</t>
-  </si>
-  <si>
-    <t>D202503050017</t>
-  </si>
-  <si>
-    <t>D202503030002</t>
-  </si>
-  <si>
-    <t>D202503070022</t>
-  </si>
-  <si>
-    <t>D202503070004</t>
-  </si>
-  <si>
-    <t>D202503070003</t>
-  </si>
-  <si>
-    <t>D202503070002</t>
-  </si>
-  <si>
-    <t>D202503040047</t>
-  </si>
-  <si>
-    <t>D202503040046</t>
-  </si>
-  <si>
-    <t>D202503040001</t>
-  </si>
-  <si>
-    <t>D202503030007</t>
-  </si>
-  <si>
-    <t>D202502280040</t>
-  </si>
-  <si>
-    <t>D202502280011</t>
-  </si>
-  <si>
-    <t>D202502200011</t>
-  </si>
-  <si>
-    <t>D202502250039</t>
-  </si>
-  <si>
-    <t>D202502250022</t>
-  </si>
-  <si>
-    <t>D202501230028</t>
-  </si>
-  <si>
-    <t>D202502240007</t>
-  </si>
-  <si>
-    <t>D202502200010</t>
-  </si>
-  <si>
-    <t>D202502210005</t>
-  </si>
-  <si>
-    <t>D202502190023</t>
-  </si>
-  <si>
-    <t>D202502190021</t>
-  </si>
-  <si>
-    <t>D202502190020</t>
-  </si>
-  <si>
-    <t>D202502190010</t>
-  </si>
-  <si>
-    <t>D202502170033</t>
-  </si>
-  <si>
-    <t>D202502170008</t>
-  </si>
-  <si>
-    <t>D202502140023</t>
-  </si>
-  <si>
-    <t>D202502140022</t>
-  </si>
-  <si>
-    <t>D202502140007</t>
-  </si>
-  <si>
-    <t>D202502080019</t>
-  </si>
-  <si>
-    <t>D202501230017</t>
   </si>
 </sst>
 </file>
@@ -16243,9 +15946,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="AR PL UKai CN"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -16254,19 +15957,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -16286,6 +15976,19 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -16745,8 +16448,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -17941,7 +17647,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>5.1</v>
       </c>
       <c r="B2">
@@ -17965,7 +17671,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>5.2</v>
       </c>
       <c r="B5">
@@ -18052,510 +17758,268 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>600</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>45844</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>45851</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>45857</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>45858</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>45864</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>45865</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B28">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32">
+        <v>33.5</v>
       </c>
     </row>
   </sheetData>
@@ -18569,980 +18033,980 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="G201" sqref="G201"/>
+    <sheetView topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="G269" sqref="G269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.1333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.3833333333333" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="66.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="22.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.1333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="58.3833333333333" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="66.625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="37.5" spans="2:3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="409" customHeight="1" spans="2:7">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" ht="131.25" spans="2:7">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" ht="56.25" spans="2:3">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" ht="150" spans="2:4">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="24"/>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="24"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="24"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="24"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="24"/>
+      <c r="C33" s="25"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" ht="56.25" spans="2:3">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="25"/>
+      <c r="C40" s="26"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="25"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="25"/>
+      <c r="C42" s="26"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" ht="313.5" spans="2:4">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" ht="409.5" spans="2:13">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M49" s="6" t="s">
+      <c r="M49" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="13"/>
+      <c r="C59" s="14"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" ht="37.5" spans="2:3">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="27" t="s">
+      <c r="D74" s="28" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="28"/>
+      <c r="D75" s="29"/>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D76" s="28"/>
+      <c r="D76" s="29"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" ht="56.25" spans="2:3">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="30" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="109" ht="112.5" spans="2:2">
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="28" t="s">
+      <c r="B149" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="28"/>
-      <c r="C150" s="2" t="s">
+      <c r="B150" s="29"/>
+      <c r="C150" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="28"/>
-      <c r="C151" s="7" t="s">
+      <c r="B151" s="29"/>
+      <c r="C151" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="2">
+      <c r="B179" s="3">
         <v>221</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="198" spans="2:2">
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="199" spans="2:2">
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="200" spans="2:2">
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="202" spans="2:2">
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="204" spans="2:2">
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="207" spans="3:3">
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="212" spans="3:3">
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="215" ht="158.25" spans="2:3">
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="218" spans="2:2">
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="221" ht="243.75" spans="2:7">
-      <c r="B221" s="15" t="s">
+      <c r="B221" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D221" s="6" t="s">
+      <c r="D221" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G221" s="6" t="s">
+      <c r="G221" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="222" ht="409.5" spans="2:4">
-      <c r="B222" s="30" t="s">
+      <c r="B222" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D222" s="6" t="s">
+      <c r="D222" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="226" ht="131.25" spans="2:2">
-      <c r="B226" s="6" t="s">
+      <c r="B226" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="229" ht="37.5" spans="1:2">
-      <c r="A229" s="31" t="s">
+      <c r="A229" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B229" s="15" t="s">
+      <c r="B229" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B234" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="241" spans="2:2">
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B243" s="12" t="s">
+      <c r="B243" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C243" s="12"/>
+      <c r="C243" s="13"/>
     </row>
     <row r="247" spans="2:2">
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="248" spans="2:2">
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="253" spans="2:2">
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="256" ht="409.5" spans="2:4">
-      <c r="B256" s="32" t="s">
+      <c r="B256" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="D256" s="6" t="s">
+      <c r="D256" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="258" ht="313.5" spans="2:2">
-      <c r="B258" s="6" t="s">
+      <c r="B258" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="2" t="s">
+      <c r="A261" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="263" spans="2:2">
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="264" ht="56.25" spans="1:2">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="266" spans="3:3">
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="269" ht="356.25" spans="1:4">
-      <c r="A269" s="2" t="s">
+      <c r="A269" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B269" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D269" s="6" t="s">
+      <c r="D269" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="274" ht="409.5" spans="2:3">
-      <c r="B274" s="6" t="s">
+      <c r="B274" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C274" s="6" t="s">
+      <c r="C274" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="2" t="s">
+      <c r="A279" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="2" t="s">
+      <c r="A280" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="283" spans="2:2">
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="306" spans="2:2">
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="307" spans="3:3">
-      <c r="C307" s="33" t="s">
+      <c r="C307" s="34" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C308" s="27"/>
+      <c r="C308" s="28"/>
     </row>
     <row r="309" spans="2:3">
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C309" s="27"/>
+      <c r="C309" s="28"/>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C310" s="27"/>
+      <c r="C310" s="28"/>
     </row>
     <row r="311" spans="3:3">
-      <c r="C311" s="27"/>
+      <c r="C311" s="28"/>
     </row>
     <row r="312" spans="3:3">
-      <c r="C312" s="27"/>
+      <c r="C312" s="28"/>
     </row>
     <row r="313" spans="3:3">
-      <c r="C313" s="27"/>
+      <c r="C313" s="28"/>
     </row>
     <row r="314" spans="3:3">
-      <c r="C314" s="27"/>
+      <c r="C314" s="28"/>
     </row>
     <row r="316" spans="2:2">
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19578,818 +19042,818 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.525" style="2" customWidth="1"/>
-    <col min="4" max="4" width="76.6166666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.65" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.15" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.525" style="3" customWidth="1"/>
+    <col min="4" max="4" width="76.6166666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="62.65" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>3009</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>30009</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>3010</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>30010</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>3013</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>30013</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>3015</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>30015</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>3016</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>30016</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>3022</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>30022</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>3023</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>30023</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>3028</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>30028</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>3031</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>30031</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>3033</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>30033</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>3035</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>30035</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>3044</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>30044</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>3045</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>30045</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>8001</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>3047</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>30047</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>7000</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="I25" s="17" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="I25" s="18" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="26" spans="4:6">
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="L27" s="18" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="L27" s="19" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="28" ht="37.5" spans="2:7">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="2" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="30" ht="93.75" spans="2:4">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="34" ht="75" spans="2:4">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="15" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="7"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" ht="93.75" spans="7:7">
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="F43" s="2" t="s">
+      <c r="C43" s="11"/>
+      <c r="F43" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="F44" s="2" t="s">
+      <c r="C44" s="11"/>
+      <c r="F44" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="49" ht="75" spans="2:2">
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="12" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="3" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="8" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="20" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="94" ht="112.5" spans="2:3">
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="7" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="97" ht="240" spans="2:4">
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="3" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="98" ht="262.5" spans="2:4">
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="12" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="105" ht="393.75" spans="3:4">
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="7" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="21"/>
+      <c r="B113" s="22"/>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="21"/>
+      <c r="B114" s="22"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="21"/>
-      <c r="C115" s="22" t="s">
+      <c r="B115" s="22"/>
+      <c r="C115" s="23" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="21"/>
-      <c r="C116" s="12"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="13"/>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="21"/>
-      <c r="C117" s="12"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="13"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="21"/>
-      <c r="C118" s="12"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="13"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="21"/>
-      <c r="C119" s="12"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="13"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="21"/>
-      <c r="C120" s="12"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="13"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="21"/>
-      <c r="C121" s="12"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="13"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="21"/>
+      <c r="B122" s="22"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="21"/>
+      <c r="B123" s="22"/>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="21"/>
+      <c r="B124" s="22"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="21"/>
+      <c r="B125" s="22"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="21"/>
+      <c r="B126" s="22"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="19" t="s">
+      <c r="B128" s="20" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="129" ht="300" spans="2:4">
-      <c r="B129" s="19" t="s">
+      <c r="B129" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="7" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="131" ht="110.25" spans="2:2">
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="7" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="19" t="s">
+      <c r="C133" s="20" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="134" ht="225" spans="3:4">
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="3" t="s">
         <v>333</v>
       </c>
     </row>
@@ -20430,82 +19894,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="92.8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="41" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="92.8" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="41" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="14" ht="356.25" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="17" ht="131.25" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="19" ht="225" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="21" ht="112.5" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>348</v>
       </c>
     </row>
@@ -20526,88 +19990,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="142" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="29.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="142" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>353</v>
       </c>
     </row>
@@ -20622,461 +20086,461 @@
   <sheetPr/>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="36" style="2" customWidth="1"/>
-    <col min="2" max="2" width="63.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="66.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="36" style="3" customWidth="1"/>
+    <col min="2" max="2" width="63.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="7" ht="37.5" spans="2:2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="6"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="53" ht="56.25" spans="2:3">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="7" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="6" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>467</v>
       </c>
     </row>
@@ -21111,49 +20575,49 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" ht="18.75" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" ht="18.75" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" ht="18.75" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" ht="18.75" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21172,133 +20636,133 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="45.75" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="45.75" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>799</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>1399</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>2527</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5">
         <f>SUM(C2:C11)</f>
         <v>8829</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>499</v>
       </c>
     </row>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -2426,12 +2426,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="AR PL UKai CN"/>
-        <charset val="134"/>
-      </rPr>
       <t>汽配</t>
     </r>
     <r>
@@ -15940,8 +15934,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.25"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -15952,22 +15960,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
+      <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -15981,13 +15982,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF212121"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -17760,8 +17754,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -18033,8 +18027,8 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="G269" sqref="G269"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -19042,8 +19036,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="1"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="设置restful xdebug" sheetId="20" r:id="rId12"/>
     <sheet name="月进度" sheetId="21" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2426,6 +2426,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="AR PL UKai CN"/>
+        <charset val="134"/>
+      </rPr>
       <t>汽配</t>
     </r>
     <r>
@@ -15947,19 +15953,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="AR PL UKai CN"/>
@@ -15975,14 +15968,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF212121"/>
       <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -18027,7 +18033,7 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -19036,8 +19042,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="设置restful xdebug" sheetId="20" r:id="rId12"/>
     <sheet name="月进度" sheetId="21" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -15940,7 +15940,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
@@ -15959,10 +15973,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15970,25 +15989,6 @@
       <sz val="11"/>
       <color theme="3" tint="-0.25"/>
       <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -16448,7 +16448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16548,6 +16548,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -16773,7 +16776,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="933450" y="42338625"/>
+          <a:off x="933450" y="42376725"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16802,8 +16805,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>105410</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16820,7 +16823,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="3344545"/>
+          <a:off x="685800" y="3992245"/>
           <a:ext cx="6172200" cy="5904865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16844,8 +16847,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16886,8 +16889,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>38735</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>219710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16904,8 +16907,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876935" y="1724660"/>
+          <a:off x="876935" y="2067560"/>
           <a:ext cx="16992600" cy="7067550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>267335</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>267335</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067935" y="4124960"/>
+          <a:ext cx="6858000" cy="1695450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16933,8 +16978,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16951,7 +16996,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2072640" y="2476500"/>
+          <a:off x="2072640" y="2971800"/>
           <a:ext cx="5527040" cy="10877550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16975,8 +17020,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>322580</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16993,7 +17038,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2959100" y="200025"/>
+          <a:off x="2959100" y="238125"/>
           <a:ext cx="13944600" cy="5162550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17022,8 +17067,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>247015</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17040,7 +17085,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="190500"/>
+          <a:off x="9525" y="228600"/>
           <a:ext cx="14745970" cy="11896725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17064,8 +17109,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17082,7 +17127,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11811000"/>
+          <a:off x="0" y="14173200"/>
           <a:ext cx="7413625" cy="7477125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17106,8 +17151,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17124,7 +17169,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19050000"/>
+          <a:off x="0" y="22860000"/>
           <a:ext cx="6908800" cy="8677275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17148,8 +17193,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17166,7 +17211,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6889750" y="12677775"/>
+          <a:off x="6889750" y="15192375"/>
           <a:ext cx="8404860" cy="6677025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17190,8 +17235,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17208,7 +17253,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="27241500"/>
+          <a:off x="0" y="32689800"/>
           <a:ext cx="11558905" cy="5019675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17232,8 +17277,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17250,7 +17295,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="32004000"/>
+          <a:off x="0" y="38404800"/>
           <a:ext cx="6908800" cy="3286125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17560,7 +17605,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="42.25" customWidth="1"/>
     <col min="2" max="2" width="81.25" customWidth="1"/>
@@ -17615,7 +17660,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData/>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -17636,7 +17681,7 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="18" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -17747,7 +17792,7 @@
       <selection activeCell="T32" sqref="T32:X34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="18"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -17764,7 +17809,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
   </cols>
@@ -18033,8 +18078,8 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -18903,7 +18948,7 @@
       <c r="B261" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="34" t="s">
         <v>191</v>
       </c>
     </row>
@@ -18971,7 +19016,7 @@
       </c>
     </row>
     <row r="307" spans="3:3">
-      <c r="C307" s="34" t="s">
+      <c r="C307" s="35" t="s">
         <v>207</v>
       </c>
     </row>
@@ -19042,8 +19087,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -19724,7 +19769,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" ht="240" spans="2:4">
+    <row r="97" ht="243" spans="2:4">
       <c r="B97" s="7" t="s">
         <v>313</v>
       </c>
@@ -20569,7 +20614,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
   </cols>
@@ -20781,7 +20826,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="50.875" customWidth="1"/>
   </cols>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="1"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -15703,8 +15703,16 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -15940,22 +15948,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF212121"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -15973,15 +15967,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -16318,16 +16326,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16336,223 +16341,229 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17692,7 +17703,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>5.1</v>
       </c>
       <c r="B2">
@@ -17716,7 +17727,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>5.2</v>
       </c>
       <c r="B5">
@@ -17803,263 +17814,413 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1">
         <v>45839</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" s="1">
+        <v>45870</v>
+      </c>
+      <c r="E1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>45840</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" s="1">
+        <v>45871</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>45841</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" s="1">
+        <v>45872</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>45842</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" s="1">
+        <v>45873</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>45843</v>
       </c>
       <c r="B5">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" s="1">
+        <v>45874</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>45844</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" s="1">
+        <v>45875</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>45845</v>
       </c>
       <c r="B7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" s="1">
+        <v>45876</v>
+      </c>
+      <c r="E7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>45846</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" s="1">
+        <v>45877</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>45847</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" s="1">
+        <v>45878</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>45848</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" s="1">
+        <v>45879</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>45849</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11" s="1">
+        <v>45880</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>45850</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12" s="1">
+        <v>45881</v>
+      </c>
+      <c r="E12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>45851</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13" s="1">
+        <v>45882</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>45852</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14" s="1">
+        <v>45883</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>45853</v>
       </c>
       <c r="B15">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15" s="1">
+        <v>45884</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>45854</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16" s="1">
+        <v>45885</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>45855</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" s="1">
+        <v>45886</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>45856</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" s="1">
+        <v>45887</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>45857</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19" s="1">
+        <v>45888</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>45858</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" s="1">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>45859</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" s="1">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>45860</v>
       </c>
       <c r="B22">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" s="1">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>45861</v>
       </c>
       <c r="B23">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23" s="1">
+        <v>45892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>45862</v>
       </c>
       <c r="B24">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24" s="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>45863</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25" s="1">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>45864</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26" s="1">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>45865</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27" s="1">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>45866</v>
       </c>
       <c r="B28">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28" s="1">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>45867</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29" s="1">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>45868</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30" s="1">
+        <v>45899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>45869</v>
       </c>
       <c r="B31">
         <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45900</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -18078,980 +18239,980 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.1333333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="58.3833333333333" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="66.625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="22.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.1333333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="71.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="58.3833333333333" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="66.625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="37.5" spans="2:3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="409" customHeight="1" spans="2:7">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" ht="131.25" spans="2:7">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" ht="56.25" spans="2:3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" ht="150" spans="2:4">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="25"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="25"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="25"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="25"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="25"/>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" ht="56.25" spans="2:3">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="26"/>
+      <c r="C40" s="27"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="26"/>
+      <c r="C41" s="27"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="26"/>
+      <c r="C42" s="27"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" ht="313.5" spans="2:4">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" ht="409.5" spans="2:13">
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M49" s="7" t="s">
+      <c r="M49" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="15"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" ht="37.5" spans="2:3">
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="29" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="29"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D76" s="29"/>
+      <c r="D76" s="30"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" ht="56.25" spans="2:3">
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="31" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="109" ht="112.5" spans="2:2">
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="29" t="s">
+      <c r="B149" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="29"/>
-      <c r="C150" s="3" t="s">
+      <c r="B150" s="30"/>
+      <c r="C150" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="29"/>
-      <c r="C151" s="8" t="s">
+      <c r="B151" s="30"/>
+      <c r="C151" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="3">
+      <c r="B179" s="4">
         <v>221</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="198" spans="2:2">
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="199" spans="2:2">
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="200" spans="2:2">
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="202" spans="2:2">
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="204" spans="2:2">
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="207" spans="3:3">
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="212" spans="3:3">
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="215" ht="158.25" spans="2:3">
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="218" spans="2:2">
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="221" ht="243.75" spans="2:7">
-      <c r="B221" s="16" t="s">
+      <c r="B221" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D221" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G221" s="7" t="s">
+      <c r="G221" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="222" ht="409.5" spans="2:4">
-      <c r="B222" s="31" t="s">
+      <c r="B222" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="D222" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="226" ht="131.25" spans="2:2">
-      <c r="B226" s="7" t="s">
+      <c r="B226" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="229" ht="37.5" spans="1:2">
-      <c r="A229" s="32" t="s">
+      <c r="A229" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B229" s="16" t="s">
+      <c r="B229" s="17" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="241" spans="2:2">
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B243" s="13" t="s">
+      <c r="B243" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C243" s="13"/>
+      <c r="C243" s="14"/>
     </row>
     <row r="247" spans="2:2">
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="248" spans="2:2">
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="253" spans="2:2">
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="256" ht="409.5" spans="2:4">
-      <c r="B256" s="33" t="s">
+      <c r="B256" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="D256" s="7" t="s">
+      <c r="D256" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="258" ht="313.5" spans="2:2">
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C261" s="34" t="s">
+      <c r="C261" s="35" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="263" spans="2:2">
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="264" ht="56.25" spans="1:2">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="266" spans="3:3">
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="269" ht="356.25" spans="1:4">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D269" s="7" t="s">
+      <c r="D269" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="274" ht="409.5" spans="2:3">
-      <c r="B274" s="7" t="s">
+      <c r="B274" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C274" s="7" t="s">
+      <c r="C274" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="283" spans="2:2">
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="306" spans="2:2">
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="307" spans="3:3">
-      <c r="C307" s="35" t="s">
+      <c r="C307" s="36" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C308" s="28"/>
+      <c r="C308" s="29"/>
     </row>
     <row r="309" spans="2:3">
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C309" s="28"/>
+      <c r="C309" s="29"/>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C310" s="28"/>
+      <c r="C310" s="29"/>
     </row>
     <row r="311" spans="3:3">
-      <c r="C311" s="28"/>
+      <c r="C311" s="29"/>
     </row>
     <row r="312" spans="3:3">
-      <c r="C312" s="28"/>
+      <c r="C312" s="29"/>
     </row>
     <row r="313" spans="3:3">
-      <c r="C313" s="28"/>
+      <c r="C313" s="29"/>
     </row>
     <row r="314" spans="3:3">
-      <c r="C314" s="28"/>
+      <c r="C314" s="29"/>
     </row>
     <row r="316" spans="2:2">
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="4" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19093,812 +19254,812 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.525" style="3" customWidth="1"/>
-    <col min="4" max="4" width="76.6166666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="62.65" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.15" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.525" style="4" customWidth="1"/>
+    <col min="4" max="4" width="76.6166666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.65" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>3009</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>30009</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>3010</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>30010</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>3013</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>30013</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>3015</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>30015</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>3016</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>30016</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>3022</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>30022</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>3023</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>30023</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="11">
+      <c r="A9" s="12">
         <v>3028</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>30028</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="11">
+      <c r="A10" s="12">
         <v>3031</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>30031</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>3033</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>30033</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>3035</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>30035</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>3044</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>30044</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>3045</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>30045</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>8001</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>3047</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>30047</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>7000</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="I25" s="18" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="I25" s="19" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="26" spans="4:6">
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="L27" s="19" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="L27" s="20" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="28" ht="37.5" spans="2:7">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="3" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="4" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="30" ht="93.75" spans="2:4">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="34" ht="75" spans="2:4">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="16" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="8"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" ht="93.75" spans="7:7">
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="F43" s="3" t="s">
+      <c r="C43" s="12"/>
+      <c r="F43" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="F44" s="3" t="s">
+      <c r="C44" s="12"/>
+      <c r="F44" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="49" ht="75" spans="2:2">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="13" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="7" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="4" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="21" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="94" ht="112.5" spans="2:3">
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="8" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="97" ht="243" spans="2:4">
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="4" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="98" ht="262.5" spans="2:4">
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D98" s="12" t="s">
+      <c r="D98" s="13" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="4" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="105" ht="393.75" spans="3:4">
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="22"/>
+      <c r="B113" s="23"/>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="22"/>
+      <c r="B114" s="23"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="22"/>
-      <c r="C115" s="23" t="s">
+      <c r="B115" s="23"/>
+      <c r="C115" s="24" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="22"/>
-      <c r="C116" s="13"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="14"/>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="22"/>
-      <c r="C117" s="13"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="14"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="22"/>
-      <c r="C118" s="13"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="14"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="22"/>
-      <c r="C119" s="13"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="14"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="22"/>
-      <c r="C120" s="13"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="14"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="22"/>
-      <c r="C121" s="13"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="14"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="22"/>
+      <c r="B122" s="23"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="22"/>
+      <c r="B123" s="23"/>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="22"/>
+      <c r="B124" s="23"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="22"/>
+      <c r="B125" s="23"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="22"/>
+      <c r="B126" s="23"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="21" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="129" ht="300" spans="2:4">
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="8" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="131" ht="110.25" spans="2:2">
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="21" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="134" ht="225" spans="3:4">
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="4" t="s">
         <v>333</v>
       </c>
     </row>
@@ -19939,82 +20100,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="92.8" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="41" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="92.8" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="41" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="14" ht="356.25" spans="1:3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="17" ht="131.25" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="19" ht="225" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="21" ht="112.5" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>348</v>
       </c>
     </row>
@@ -20035,88 +20196,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="142" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="29.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="142" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>353</v>
       </c>
     </row>
@@ -20137,455 +20298,455 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="36" style="3" customWidth="1"/>
-    <col min="2" max="2" width="63.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="36" style="4" customWidth="1"/>
+    <col min="2" max="2" width="63.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="66.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="7" ht="37.5" spans="2:2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="53" ht="56.25" spans="2:3">
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="8" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="7" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="4" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="4" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="4" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="4" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="4" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="4" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="4" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="4" t="s">
         <v>467</v>
       </c>
     </row>
@@ -20620,49 +20781,49 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" ht="18.75" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" ht="18.75" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" ht="18.75" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" ht="18.75" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20681,133 +20842,133 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="45.75" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="45.75" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>799</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>1399</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>2527</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6">
         <f>SUM(C2:C11)</f>
         <v>8829</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>499</v>
       </c>
     </row>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet1" sheetId="19" r:id="rId11"/>
     <sheet name="设置restful xdebug" sheetId="20" r:id="rId12"/>
     <sheet name="月进度" sheetId="21" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="22" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="590">
   <si>
     <t>MRO - 产品清单页面增加到货数和到货率统计</t>
   </si>
@@ -15690,6 +15691,270 @@
   </si>
   <si>
     <t>10083  [袁鹏峰]-PA：新品流程追踪，更换数据源</t>
+  </si>
+  <si>
+    <t>AD250801000009_1</t>
+  </si>
+  <si>
+    <t>AD250801000009_1,</t>
+  </si>
+  <si>
+    <t>AD250731000026</t>
+  </si>
+  <si>
+    <t>AD250731000026,</t>
+  </si>
+  <si>
+    <t>AD250729000013_1</t>
+  </si>
+  <si>
+    <t>AD250806000012</t>
+  </si>
+  <si>
+    <t>AD250717000012_1</t>
+  </si>
+  <si>
+    <t>AD2507310000260,</t>
+  </si>
+  <si>
+    <t>AD250806000020</t>
+  </si>
+  <si>
+    <t>AD2507310000268,</t>
+  </si>
+  <si>
+    <t>AD250805000024</t>
+  </si>
+  <si>
+    <t>AD2507310000266,</t>
+  </si>
+  <si>
+    <t>AD250806000019</t>
+  </si>
+  <si>
+    <t>AD2507310000267,</t>
+  </si>
+  <si>
+    <t>AD250811000029</t>
+  </si>
+  <si>
+    <t>AD2507310000262,</t>
+  </si>
+  <si>
+    <t>AD250718000010</t>
+  </si>
+  <si>
+    <t>AD2507310000265,</t>
+  </si>
+  <si>
+    <t>AD250731000010</t>
+  </si>
+  <si>
+    <t>AD2507310000261,</t>
+  </si>
+  <si>
+    <t>AD250807000011</t>
+  </si>
+  <si>
+    <t>AD2507310000264,</t>
+  </si>
+  <si>
+    <t>AD250804000021</t>
+  </si>
+  <si>
+    <t>AD250729000013_1,</t>
+  </si>
+  <si>
+    <t>AD250811000027</t>
+  </si>
+  <si>
+    <t>AD250806000012,</t>
+  </si>
+  <si>
+    <t>AD250724000020</t>
+  </si>
+  <si>
+    <t>AD250717000012_1,</t>
+  </si>
+  <si>
+    <t>AD250805000030</t>
+  </si>
+  <si>
+    <t>AD250806000020,</t>
+  </si>
+  <si>
+    <t>AD250729000023</t>
+  </si>
+  <si>
+    <t>AD250805000024,</t>
+  </si>
+  <si>
+    <t>AD250721000003</t>
+  </si>
+  <si>
+    <t>AD250806000019,</t>
+  </si>
+  <si>
+    <t>AD250812000042</t>
+  </si>
+  <si>
+    <t>AD250811000029,</t>
+  </si>
+  <si>
+    <t>AD250813000036</t>
+  </si>
+  <si>
+    <t>AD250718000010,</t>
+  </si>
+  <si>
+    <t>AD250807000029</t>
+  </si>
+  <si>
+    <t>AD250731000010,</t>
+  </si>
+  <si>
+    <t>AD250812000046</t>
+  </si>
+  <si>
+    <t>AD250807000011,</t>
+  </si>
+  <si>
+    <t>AD250723000025</t>
+  </si>
+  <si>
+    <t>AD250804000021,</t>
+  </si>
+  <si>
+    <t>AD250723000030</t>
+  </si>
+  <si>
+    <t>AD2508040000215,</t>
+  </si>
+  <si>
+    <t>AD250806000034</t>
+  </si>
+  <si>
+    <t>AD2508040000213,</t>
+  </si>
+  <si>
+    <t>AD250807000042_1</t>
+  </si>
+  <si>
+    <t>AD2508040000217,</t>
+  </si>
+  <si>
+    <t>AD250807000006</t>
+  </si>
+  <si>
+    <t>AD2508040000212,</t>
+  </si>
+  <si>
+    <t>AD250808000020</t>
+  </si>
+  <si>
+    <t>AD2508040000216,</t>
+  </si>
+  <si>
+    <t>AD250814000010</t>
+  </si>
+  <si>
+    <t>AD2508040000214,</t>
+  </si>
+  <si>
+    <t>AD250805000029</t>
+  </si>
+  <si>
+    <t>AD2508040000210,</t>
+  </si>
+  <si>
+    <t>AD250805000004_1</t>
+  </si>
+  <si>
+    <t>AD2508040000218,</t>
+  </si>
+  <si>
+    <t>AD250724000004</t>
+  </si>
+  <si>
+    <t>AD2508040000219,</t>
+  </si>
+  <si>
+    <t>AD250722000030</t>
+  </si>
+  <si>
+    <t>AD2508040000211,</t>
+  </si>
+  <si>
+    <t>AD250806000006</t>
+  </si>
+  <si>
+    <t>AD250811000027,</t>
+  </si>
+  <si>
+    <t>AD250807000039</t>
+  </si>
+  <si>
+    <t>AD250724000020,</t>
+  </si>
+  <si>
+    <t>AD250812000031</t>
+  </si>
+  <si>
+    <t>AD250805000030,</t>
+  </si>
+  <si>
+    <t>AD250729000023,</t>
+  </si>
+  <si>
+    <t>AD250721000003,</t>
+  </si>
+  <si>
+    <t>AD250812000042,</t>
+  </si>
+  <si>
+    <t>AD250813000036,</t>
+  </si>
+  <si>
+    <t>AD250807000029,</t>
+  </si>
+  <si>
+    <t>AD250812000046,</t>
+  </si>
+  <si>
+    <t>AD250723000025,</t>
+  </si>
+  <si>
+    <t>AD250723000030,</t>
+  </si>
+  <si>
+    <t>AD250806000034,</t>
+  </si>
+  <si>
+    <t>AD250807000042_1,</t>
+  </si>
+  <si>
+    <t>AD250807000006,</t>
+  </si>
+  <si>
+    <t>AD250808000020,</t>
+  </si>
+  <si>
+    <t>AD250814000010,</t>
+  </si>
+  <si>
+    <t>AD250805000029,</t>
+  </si>
+  <si>
+    <t>AD250805000004_1,</t>
+  </si>
+  <si>
+    <t>AD250724000004,</t>
+  </si>
+  <si>
+    <t>AD250722000030,</t>
+  </si>
+  <si>
+    <t>AD250806000006,</t>
   </si>
 </sst>
 </file>
@@ -15948,8 +16213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -15961,8 +16227,21 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -15980,22 +16259,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
+      <color rgb="FFFF0000"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -17816,7 +18081,7 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -18226,6 +18491,409 @@
     <row r="32" spans="2:2">
       <c r="B32">
         <v>33.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>507</v>
+      </c>
+      <c r="G4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>508</v>
+      </c>
+      <c r="G5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>510</v>
+      </c>
+      <c r="G6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>514</v>
+      </c>
+      <c r="G8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>516</v>
+      </c>
+      <c r="G9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>518</v>
+      </c>
+      <c r="G10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>520</v>
+      </c>
+      <c r="G11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>522</v>
+      </c>
+      <c r="G12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>524</v>
+      </c>
+      <c r="G13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>526</v>
+      </c>
+      <c r="G14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>528</v>
+      </c>
+      <c r="G15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>530</v>
+      </c>
+      <c r="G16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>532</v>
+      </c>
+      <c r="G17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>534</v>
+      </c>
+      <c r="G18" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>536</v>
+      </c>
+      <c r="G19" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>538</v>
+      </c>
+      <c r="G20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>540</v>
+      </c>
+      <c r="G21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>542</v>
+      </c>
+      <c r="G22" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>544</v>
+      </c>
+      <c r="G23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>546</v>
+      </c>
+      <c r="G24" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>548</v>
+      </c>
+      <c r="G25" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>550</v>
+      </c>
+      <c r="G26" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>552</v>
+      </c>
+      <c r="G27" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>554</v>
+      </c>
+      <c r="G28" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>556</v>
+      </c>
+      <c r="G29" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>558</v>
+      </c>
+      <c r="G30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>560</v>
+      </c>
+      <c r="G31" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>562</v>
+      </c>
+      <c r="G32" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>564</v>
+      </c>
+      <c r="G33" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>566</v>
+      </c>
+      <c r="G34" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>568</v>
+      </c>
+      <c r="G35" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>570</v>
+      </c>
+      <c r="G36" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7">
+      <c r="G42" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7">
+      <c r="G43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7">
+      <c r="G44" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7">
+      <c r="G46" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7">
+      <c r="G53" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7">
+      <c r="G54" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7">
+      <c r="G55" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -18240,7 +18908,7 @@
   <dimension ref="A1:M316"/>
   <sheetViews>
     <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -19248,7 +19916,7 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A30" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="13"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -16213,13 +16213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -16227,16 +16220,10 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
-      <name val="AR PL UKai CN"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -16248,8 +16235,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -16259,8 +16246,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.25"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -18081,8 +18081,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="4"/>
@@ -18297,7 +18297,7 @@
         <v>45884</v>
       </c>
       <c r="E15" s="2">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -18356,7 +18356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>45858</v>
       </c>
@@ -18366,8 +18366,11 @@
       <c r="D20" s="1">
         <v>45889</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>45859</v>
       </c>
@@ -18377,8 +18380,11 @@
       <c r="D21" s="1">
         <v>45890</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>45860</v>
       </c>
@@ -18388,8 +18394,11 @@
       <c r="D22" s="1">
         <v>45891</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>45861</v>
       </c>
@@ -18399,8 +18408,11 @@
       <c r="D23" s="1">
         <v>45892</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>45862</v>
       </c>
@@ -18410,8 +18422,11 @@
       <c r="D24" s="1">
         <v>45893</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>45863</v>
       </c>
@@ -18421,8 +18436,11 @@
       <c r="D25" s="1">
         <v>45894</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>45864</v>
       </c>
@@ -18432,8 +18450,11 @@
       <c r="D26" s="1">
         <v>45895</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>45865</v>
       </c>
@@ -18443,8 +18464,11 @@
       <c r="D27" s="1">
         <v>45896</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>45866</v>
       </c>
@@ -18454,8 +18478,11 @@
       <c r="D28" s="1">
         <v>45897</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>45867</v>
       </c>
@@ -18465,8 +18492,11 @@
       <c r="D29" s="1">
         <v>45898</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>45868</v>
       </c>
@@ -18476,8 +18506,11 @@
       <c r="D30" s="1">
         <v>45899</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>45869</v>
       </c>
@@ -18486,6 +18519,9 @@
       </c>
       <c r="D31" s="1">
         <v>45900</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -18504,7 +18540,7 @@
   <sheetPr/>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A36"/>
     </sheetView>
   </sheetViews>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -16213,24 +16213,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -16246,21 +16252,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -17116,19 +17116,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>181610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17141,92 +17141,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10934700" cy="3200400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>191135</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>38735</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>219710</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="876935" y="2067560"/>
-          <a:ext cx="16992600" cy="7067550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>267335</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267335</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>105410</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5067935" y="4124960"/>
-          <a:ext cx="6858000" cy="1695450"/>
+          <a:off x="106680" y="635"/>
+          <a:ext cx="23698200" cy="8410575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18081,7 +17997,7 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -18943,8 +18859,8 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView topLeftCell="B222" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -19952,8 +19868,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="503">
   <si>
     <t>MRO - 产品清单页面增加到货数和到货率统计</t>
   </si>
@@ -15693,268 +15693,7 @@
     <t>10083  [袁鹏峰]-PA：新品流程追踪，更换数据源</t>
   </si>
   <si>
-    <t>AD250801000009_1</t>
-  </si>
-  <si>
-    <t>AD250801000009_1,</t>
-  </si>
-  <si>
-    <t>AD250731000026</t>
-  </si>
-  <si>
-    <t>AD250731000026,</t>
-  </si>
-  <si>
-    <t>AD250729000013_1</t>
-  </si>
-  <si>
-    <t>AD250806000012</t>
-  </si>
-  <si>
-    <t>AD250717000012_1</t>
-  </si>
-  <si>
-    <t>AD2507310000260,</t>
-  </si>
-  <si>
-    <t>AD250806000020</t>
-  </si>
-  <si>
-    <t>AD2507310000268,</t>
-  </si>
-  <si>
-    <t>AD250805000024</t>
-  </si>
-  <si>
-    <t>AD2507310000266,</t>
-  </si>
-  <si>
-    <t>AD250806000019</t>
-  </si>
-  <si>
-    <t>AD2507310000267,</t>
-  </si>
-  <si>
-    <t>AD250811000029</t>
-  </si>
-  <si>
-    <t>AD2507310000262,</t>
-  </si>
-  <si>
-    <t>AD250718000010</t>
-  </si>
-  <si>
-    <t>AD2507310000265,</t>
-  </si>
-  <si>
-    <t>AD250731000010</t>
-  </si>
-  <si>
-    <t>AD2507310000261,</t>
-  </si>
-  <si>
-    <t>AD250807000011</t>
-  </si>
-  <si>
-    <t>AD2507310000264,</t>
-  </si>
-  <si>
-    <t>AD250804000021</t>
-  </si>
-  <si>
-    <t>AD250729000013_1,</t>
-  </si>
-  <si>
-    <t>AD250811000027</t>
-  </si>
-  <si>
-    <t>AD250806000012,</t>
-  </si>
-  <si>
-    <t>AD250724000020</t>
-  </si>
-  <si>
-    <t>AD250717000012_1,</t>
-  </si>
-  <si>
-    <t>AD250805000030</t>
-  </si>
-  <si>
-    <t>AD250806000020,</t>
-  </si>
-  <si>
-    <t>AD250729000023</t>
-  </si>
-  <si>
-    <t>AD250805000024,</t>
-  </si>
-  <si>
-    <t>AD250721000003</t>
-  </si>
-  <si>
-    <t>AD250806000019,</t>
-  </si>
-  <si>
-    <t>AD250812000042</t>
-  </si>
-  <si>
-    <t>AD250811000029,</t>
-  </si>
-  <si>
-    <t>AD250813000036</t>
-  </si>
-  <si>
-    <t>AD250718000010,</t>
-  </si>
-  <si>
-    <t>AD250807000029</t>
-  </si>
-  <si>
-    <t>AD250731000010,</t>
-  </si>
-  <si>
-    <t>AD250812000046</t>
-  </si>
-  <si>
-    <t>AD250807000011,</t>
-  </si>
-  <si>
-    <t>AD250723000025</t>
-  </si>
-  <si>
-    <t>AD250804000021,</t>
-  </si>
-  <si>
-    <t>AD250723000030</t>
-  </si>
-  <si>
-    <t>AD2508040000215,</t>
-  </si>
-  <si>
-    <t>AD250806000034</t>
-  </si>
-  <si>
-    <t>AD2508040000213,</t>
-  </si>
-  <si>
-    <t>AD250807000042_1</t>
-  </si>
-  <si>
-    <t>AD2508040000217,</t>
-  </si>
-  <si>
-    <t>AD250807000006</t>
-  </si>
-  <si>
-    <t>AD2508040000212,</t>
-  </si>
-  <si>
-    <t>AD250808000020</t>
-  </si>
-  <si>
-    <t>AD2508040000216,</t>
-  </si>
-  <si>
-    <t>AD250814000010</t>
-  </si>
-  <si>
-    <t>AD2508040000214,</t>
-  </si>
-  <si>
-    <t>AD250805000029</t>
-  </si>
-  <si>
-    <t>AD2508040000210,</t>
-  </si>
-  <si>
-    <t>AD250805000004_1</t>
-  </si>
-  <si>
-    <t>AD2508040000218,</t>
-  </si>
-  <si>
-    <t>AD250724000004</t>
-  </si>
-  <si>
-    <t>AD2508040000219,</t>
-  </si>
-  <si>
-    <t>AD250722000030</t>
-  </si>
-  <si>
-    <t>AD2508040000211,</t>
-  </si>
-  <si>
-    <t>AD250806000006</t>
-  </si>
-  <si>
-    <t>AD250811000027,</t>
-  </si>
-  <si>
-    <t>AD250807000039</t>
-  </si>
-  <si>
-    <t>AD250724000020,</t>
-  </si>
-  <si>
-    <t>AD250812000031</t>
-  </si>
-  <si>
-    <t>AD250805000030,</t>
-  </si>
-  <si>
-    <t>AD250729000023,</t>
-  </si>
-  <si>
-    <t>AD250721000003,</t>
-  </si>
-  <si>
-    <t>AD250812000042,</t>
-  </si>
-  <si>
-    <t>AD250813000036,</t>
-  </si>
-  <si>
-    <t>AD250807000029,</t>
-  </si>
-  <si>
-    <t>AD250812000046,</t>
-  </si>
-  <si>
-    <t>AD250723000025,</t>
-  </si>
-  <si>
-    <t>AD250723000030,</t>
-  </si>
-  <si>
-    <t>AD250806000034,</t>
-  </si>
-  <si>
-    <t>AD250807000042_1,</t>
-  </si>
-  <si>
-    <t>AD250807000006,</t>
-  </si>
-  <si>
-    <t>AD250808000020,</t>
-  </si>
-  <si>
-    <t>AD250814000010,</t>
-  </si>
-  <si>
-    <t>AD250805000029,</t>
-  </si>
-  <si>
-    <t>AD250805000004_1,</t>
-  </si>
-  <si>
-    <t>AD250724000004,</t>
-  </si>
-  <si>
-    <t>AD250722000030,</t>
-  </si>
-  <si>
-    <t>AD250806000006,</t>
+    <t>QD202509170018</t>
   </si>
 </sst>
 </file>
@@ -15968,13 +15707,19 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
     </font>
     <font>
       <strike/>
@@ -16221,13 +15966,26 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3" tint="-0.25"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -16241,26 +15999,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -16591,16 +16336,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16609,226 +16351,232 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17116,15 +16864,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>635</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
+      <xdr:rowOff>153670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>181610</xdr:rowOff>
+      <xdr:colOff>381635</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17141,8 +16889,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="635"/>
+          <a:off x="635" y="153670"/>
           <a:ext cx="23698200" cy="8410575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>534035</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>581660</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14250035" y="1076960"/>
+          <a:ext cx="4848225" cy="6858000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17884,7 +17674,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>5.1</v>
       </c>
       <c r="B2">
@@ -17908,7 +17698,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>5.2</v>
       </c>
       <c r="B5">
@@ -17995,454 +17785,642 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2">
         <v>45839</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>45870</v>
       </c>
       <c r="E1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="F1" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
         <v>45840</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>45871</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="F2" s="2">
+        <v>45902</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
         <v>45841</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>45872</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="F3" s="2">
+        <v>45903</v>
+      </c>
+      <c r="G3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
         <v>45842</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>45873</v>
       </c>
       <c r="E4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="F4" s="2">
+        <v>45904</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
         <v>45843</v>
       </c>
       <c r="B5">
         <v>5.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>45874</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="F5" s="2">
+        <v>45905</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
         <v>45844</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>45875</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="F6" s="2">
+        <v>45906</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
         <v>45845</v>
       </c>
       <c r="B7">
         <v>1.5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>45876</v>
       </c>
       <c r="E7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="F7" s="2">
+        <v>45907</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
         <v>45846</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>45877</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="F8" s="2">
+        <v>45908</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
         <v>45847</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>45878</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="F9" s="2">
+        <v>45909</v>
+      </c>
+      <c r="G9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
         <v>45848</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>45879</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="F10" s="2">
+        <v>45910</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
         <v>45849</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>45880</v>
       </c>
       <c r="E11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="F11" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
         <v>45850</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>45881</v>
       </c>
       <c r="E12">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="F12" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
         <v>45851</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>45882</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="F13" s="2">
+        <v>45913</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
         <v>45852</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>45883</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="F14" s="2">
+        <v>45914</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
         <v>45853</v>
       </c>
       <c r="B15">
         <v>1.5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>45884</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="F15" s="2">
+        <v>45915</v>
+      </c>
+      <c r="G15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
         <v>45854</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>45885</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="F16" s="2">
+        <v>45916</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
         <v>45855</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>45886</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="F17" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
         <v>45856</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>45887</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="F18" s="2">
+        <v>45918</v>
+      </c>
+      <c r="G18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
         <v>45857</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>45888</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="F19" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
         <v>45858</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>45889</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="F20" s="2">
+        <v>45920</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
         <v>45859</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>45890</v>
       </c>
       <c r="E21">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="F21" s="2">
+        <v>45921</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
         <v>45860</v>
       </c>
       <c r="B22">
         <v>0.5</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>45891</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
+      <c r="F22" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
         <v>45861</v>
       </c>
       <c r="B23">
         <v>1.5</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>45892</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
+      <c r="F23" s="2">
+        <v>45923</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
         <v>45862</v>
       </c>
       <c r="B24">
         <v>1.5</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>45893</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
+      <c r="F24" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
         <v>45863</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>45894</v>
       </c>
       <c r="E25">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
+      <c r="F25" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
         <v>45864</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>45895</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
+      <c r="F26" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
         <v>45865</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>45896</v>
       </c>
       <c r="E27">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
+      <c r="F27" s="2">
+        <v>45927</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
         <v>45866</v>
       </c>
       <c r="B28">
         <v>1.5</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>45897</v>
       </c>
       <c r="E28">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
+      <c r="F28" s="2">
+        <v>45928</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
         <v>45867</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>45898</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
+      <c r="F29" s="2">
+        <v>45929</v>
+      </c>
+      <c r="G29">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
         <v>45868</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>45899</v>
       </c>
       <c r="E30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
+      <c r="F30" s="2">
+        <v>45930</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
         <v>45869</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>45900</v>
       </c>
       <c r="E31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32">
         <v>33.5</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -18454,398 +18432,20 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A36"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="G1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>506</v>
-      </c>
-      <c r="G3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>507</v>
-      </c>
-      <c r="G4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>508</v>
-      </c>
-      <c r="G5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>510</v>
-      </c>
-      <c r="G6" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>514</v>
-      </c>
-      <c r="G8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>516</v>
-      </c>
-      <c r="G9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>518</v>
-      </c>
-      <c r="G10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>520</v>
-      </c>
-      <c r="G11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>522</v>
-      </c>
-      <c r="G12" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>524</v>
-      </c>
-      <c r="G13" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>526</v>
-      </c>
-      <c r="G14" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>528</v>
-      </c>
-      <c r="G15" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>530</v>
-      </c>
-      <c r="G16" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>532</v>
-      </c>
-      <c r="G17" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>534</v>
-      </c>
-      <c r="G18" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>536</v>
-      </c>
-      <c r="G19" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>538</v>
-      </c>
-      <c r="G20" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>540</v>
-      </c>
-      <c r="G21" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>542</v>
-      </c>
-      <c r="G22" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>544</v>
-      </c>
-      <c r="G23" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>546</v>
-      </c>
-      <c r="G24" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>548</v>
-      </c>
-      <c r="G25" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>550</v>
-      </c>
-      <c r="G26" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>552</v>
-      </c>
-      <c r="G27" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>554</v>
-      </c>
-      <c r="G28" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>556</v>
-      </c>
-      <c r="G29" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>558</v>
-      </c>
-      <c r="G30" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>560</v>
-      </c>
-      <c r="G31" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>562</v>
-      </c>
-      <c r="G32" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>564</v>
-      </c>
-      <c r="G33" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>566</v>
-      </c>
-      <c r="G34" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>568</v>
-      </c>
-      <c r="G35" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>570</v>
-      </c>
-      <c r="G36" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7">
-      <c r="G37" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7">
-      <c r="G38" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7">
-      <c r="G39" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="40" spans="7:7">
-      <c r="G40" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="41" spans="7:7">
-      <c r="G41" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="42" spans="7:7">
-      <c r="G42" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="43" spans="7:7">
-      <c r="G43" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="44" spans="7:7">
-      <c r="G44" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="45" spans="7:7">
-      <c r="G45" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="46" spans="7:7">
-      <c r="G46" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="47" spans="7:7">
-      <c r="G47" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="48" spans="7:7">
-      <c r="G48" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7">
-      <c r="G49" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7">
-      <c r="G50" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7">
-      <c r="G51" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7">
-      <c r="G52" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7">
-      <c r="G53" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7">
-      <c r="G54" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7">
-      <c r="G55" t="s">
-        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -18859,980 +18459,980 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView topLeftCell="B222" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.1333333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="71.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="58.3833333333333" style="4" customWidth="1"/>
-    <col min="5" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="66.625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="22.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.1333333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="71.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="58.3833333333333" style="5" customWidth="1"/>
+    <col min="5" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="66.625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="37.5" spans="2:3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="409" customHeight="1" spans="2:7">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" ht="131.25" spans="2:7">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" ht="56.25" spans="2:3">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" ht="150" spans="2:4">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="26"/>
+      <c r="C29" s="27"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="26"/>
+      <c r="C30" s="27"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="26"/>
+      <c r="C31" s="27"/>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="26"/>
+      <c r="C32" s="27"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="26"/>
+      <c r="C33" s="27"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" ht="56.25" spans="2:3">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="27"/>
+      <c r="C40" s="28"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="27"/>
+      <c r="C41" s="28"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="27"/>
+      <c r="C42" s="28"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" ht="313.5" spans="2:4">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" ht="409.5" spans="2:13">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M49" s="8" t="s">
+      <c r="M49" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="15"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" ht="37.5" spans="2:3">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="30"/>
+      <c r="D75" s="31"/>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D76" s="30"/>
+      <c r="D76" s="31"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" ht="56.25" spans="2:3">
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="32" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="109" ht="112.5" spans="2:2">
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="30"/>
-      <c r="C150" s="4" t="s">
+      <c r="B150" s="31"/>
+      <c r="C150" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="30"/>
-      <c r="C151" s="9" t="s">
+      <c r="B151" s="31"/>
+      <c r="C151" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="4">
+      <c r="B179" s="5">
         <v>221</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C179" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="198" spans="2:2">
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="199" spans="2:2">
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="200" spans="2:2">
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="202" spans="2:2">
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="204" spans="2:2">
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="207" spans="3:3">
-      <c r="C207" s="4" t="s">
+      <c r="C207" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="212" spans="3:3">
-      <c r="C212" s="4" t="s">
+      <c r="C212" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="215" ht="158.25" spans="2:3">
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="218" spans="2:2">
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="221" ht="243.75" spans="2:7">
-      <c r="B221" s="17" t="s">
+      <c r="B221" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C221" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D221" s="8" t="s">
+      <c r="D221" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G221" s="8" t="s">
+      <c r="G221" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="222" ht="409.5" spans="2:4">
-      <c r="B222" s="32" t="s">
+      <c r="B222" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C222" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D222" s="8" t="s">
+      <c r="D222" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="226" ht="131.25" spans="2:2">
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="229" ht="37.5" spans="1:2">
-      <c r="A229" s="33" t="s">
+      <c r="A229" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B229" s="17" t="s">
+      <c r="B229" s="18" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="241" spans="2:2">
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B243" s="14" t="s">
+      <c r="B243" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C243" s="14"/>
+      <c r="C243" s="15"/>
     </row>
     <row r="247" spans="2:2">
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="248" spans="2:2">
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="253" spans="2:2">
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="256" ht="409.5" spans="2:4">
-      <c r="B256" s="34" t="s">
+      <c r="B256" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="D256" s="8" t="s">
+      <c r="D256" s="9" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="258" ht="313.5" spans="2:2">
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="4" t="s">
+      <c r="A261" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C261" s="35" t="s">
+      <c r="C261" s="36" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="263" spans="2:2">
-      <c r="B263" s="4" t="s">
+      <c r="B263" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="264" ht="56.25" spans="1:2">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B264" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="266" spans="3:3">
-      <c r="C266" s="4" t="s">
+      <c r="C266" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="269" ht="356.25" spans="1:4">
-      <c r="A269" s="4" t="s">
+      <c r="A269" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B269" s="8" t="s">
+      <c r="B269" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D269" s="8" t="s">
+      <c r="D269" s="9" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="274" ht="409.5" spans="2:3">
-      <c r="B274" s="8" t="s">
+      <c r="B274" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C274" s="8" t="s">
+      <c r="C274" s="9" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="4" t="s">
+      <c r="A279" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" s="5" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="4" t="s">
+      <c r="A280" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B280" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="283" spans="2:2">
-      <c r="B283" s="4" t="s">
+      <c r="B283" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="306" spans="2:2">
-      <c r="B306" s="4" t="s">
+      <c r="B306" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="307" spans="3:3">
-      <c r="C307" s="36" t="s">
+      <c r="C307" s="37" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" s="4" t="s">
+      <c r="B308" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C308" s="29"/>
+      <c r="C308" s="30"/>
     </row>
     <row r="309" spans="2:3">
-      <c r="B309" s="4" t="s">
+      <c r="B309" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C309" s="29"/>
+      <c r="C309" s="30"/>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" s="4" t="s">
+      <c r="B310" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C310" s="29"/>
+      <c r="C310" s="30"/>
     </row>
     <row r="311" spans="3:3">
-      <c r="C311" s="29"/>
+      <c r="C311" s="30"/>
     </row>
     <row r="312" spans="3:3">
-      <c r="C312" s="29"/>
+      <c r="C312" s="30"/>
     </row>
     <row r="313" spans="3:3">
-      <c r="C313" s="29"/>
+      <c r="C313" s="30"/>
     </row>
     <row r="314" spans="3:3">
-      <c r="C314" s="29"/>
+      <c r="C314" s="30"/>
     </row>
     <row r="316" spans="2:2">
-      <c r="B316" s="4" t="s">
+      <c r="B316" s="5" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19868,818 +19468,818 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.525" style="4" customWidth="1"/>
-    <col min="4" max="4" width="76.6166666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.65" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.15" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.525" style="5" customWidth="1"/>
+    <col min="4" max="4" width="76.6166666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="62.65" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>3009</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>30009</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>3010</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>30010</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3013</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>30013</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>3015</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>30015</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>3016</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>30016</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>3022</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>30022</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>3023</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>30023</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>3028</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>30028</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>3031</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>30031</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>3033</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>30033</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>3035</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>30035</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>3044</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>30044</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>3045</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>30045</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>8001</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>3047</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>30047</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>7000</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="I25" s="19" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="I25" s="20" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="26" spans="4:6">
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="L27" s="20" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="L27" s="21" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="28" ht="37.5" spans="2:7">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="4" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="30" ht="93.75" spans="2:4">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="34" ht="75" spans="2:4">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="17" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="9"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" ht="93.75" spans="7:7">
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="9" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="F43" s="4" t="s">
+      <c r="C43" s="13"/>
+      <c r="F43" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="5" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="F44" s="4" t="s">
+      <c r="C44" s="13"/>
+      <c r="F44" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="49" ht="75" spans="2:2">
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="14" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="14" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="5" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="5" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="5" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="22" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="94" ht="112.5" spans="2:3">
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="97" ht="243" spans="2:4">
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="98" ht="262.5" spans="2:4">
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="14" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="5" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="105" ht="393.75" spans="3:4">
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="9" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="5" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="5" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="23"/>
+      <c r="B113" s="24"/>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="23"/>
+      <c r="B114" s="24"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="23"/>
-      <c r="C115" s="24" t="s">
+      <c r="B115" s="24"/>
+      <c r="C115" s="25" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="23"/>
-      <c r="C116" s="14"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="15"/>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="23"/>
-      <c r="C117" s="14"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="15"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="23"/>
-      <c r="C118" s="14"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="15"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="23"/>
-      <c r="C119" s="14"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="15"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="23"/>
-      <c r="C120" s="14"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="15"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="23"/>
-      <c r="C121" s="14"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="15"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="23"/>
+      <c r="B122" s="24"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="23"/>
+      <c r="B123" s="24"/>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="23"/>
+      <c r="B124" s="24"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="23"/>
+      <c r="B125" s="24"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="23"/>
+      <c r="B126" s="24"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="22" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="129" ht="300" spans="2:4">
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="9" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="131" ht="110.25" spans="2:2">
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="9" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="22" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="134" ht="225" spans="3:4">
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="5" t="s">
         <v>333</v>
       </c>
     </row>
@@ -20720,82 +20320,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="92.8" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="41" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="92.8" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="41" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="14" ht="356.25" spans="1:3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="17" ht="131.25" spans="1:1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="19" ht="225" spans="1:1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="21" ht="112.5" spans="1:1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>348</v>
       </c>
     </row>
@@ -20816,88 +20416,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="142" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="29.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="142" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>353</v>
       </c>
     </row>
@@ -20918,455 +20518,455 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="36" style="4" customWidth="1"/>
-    <col min="2" max="2" width="63.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="66.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="36" style="5" customWidth="1"/>
+    <col min="2" max="2" width="63.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="66.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="7" ht="37.5" spans="2:2">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="8"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="53" ht="56.25" spans="2:3">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="5" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="5" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="5" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="5" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="5" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="8" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="5" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="5" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="5" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="5" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="5" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="5" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="5" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="5" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="5" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="5" t="s">
         <v>467</v>
       </c>
     </row>
@@ -21401,49 +21001,49 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" ht="18.75" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" ht="18.75" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" ht="18.75" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" ht="18.75" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21462,133 +21062,133 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="45.75" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="45.75" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>799</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>1399</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>2527</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7">
         <f>SUM(C2:C11)</f>
         <v>8829</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>499</v>
       </c>
     </row>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="1"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -15958,8 +15958,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -15971,36 +15991,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3" tint="-0.25"/>
       <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -17785,19 +17785,21 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="9.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="2">
         <v>45839</v>
       </c>
@@ -17816,8 +17818,14 @@
       <c r="G1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2">
+        <v>45931</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>45840</v>
       </c>
@@ -17836,8 +17844,14 @@
       <c r="G2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2">
+        <v>45932</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>45841</v>
       </c>
@@ -17856,8 +17870,14 @@
       <c r="G3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2">
+        <v>45933</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>45842</v>
       </c>
@@ -17876,8 +17896,14 @@
       <c r="G4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2">
+        <v>45934</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>45843</v>
       </c>
@@ -17896,8 +17922,14 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2">
+        <v>45935</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>45844</v>
       </c>
@@ -17916,8 +17948,14 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2">
+        <v>45936</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>45845</v>
       </c>
@@ -17936,8 +17974,14 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2">
+        <v>45937</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>45846</v>
       </c>
@@ -17956,8 +18000,14 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2">
+        <v>45938</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>45847</v>
       </c>
@@ -17976,8 +18026,14 @@
       <c r="G9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2">
+        <v>45939</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>45848</v>
       </c>
@@ -17996,8 +18052,14 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2">
+        <v>45940</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>45849</v>
       </c>
@@ -18016,8 +18078,14 @@
       <c r="G11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2">
+        <v>45941</v>
+      </c>
+      <c r="I11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>45850</v>
       </c>
@@ -18036,8 +18104,14 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2">
+        <v>45942</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>45851</v>
       </c>
@@ -18056,8 +18130,14 @@
       <c r="G13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2">
+        <v>45943</v>
+      </c>
+      <c r="I13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>45852</v>
       </c>
@@ -18076,8 +18156,14 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2">
+        <v>45944</v>
+      </c>
+      <c r="I14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>45853</v>
       </c>
@@ -18096,8 +18182,14 @@
       <c r="G15">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2">
+        <v>45945</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>45854</v>
       </c>
@@ -18116,8 +18208,14 @@
       <c r="G16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2">
+        <v>45946</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>45855</v>
       </c>
@@ -18136,8 +18234,14 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2">
+        <v>45947</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>45856</v>
       </c>
@@ -18156,8 +18260,14 @@
       <c r="G18">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2">
+        <v>45948</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>45857</v>
       </c>
@@ -18176,8 +18286,14 @@
       <c r="G19">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2">
+        <v>45949</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>45858</v>
       </c>
@@ -18196,8 +18312,14 @@
       <c r="G20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2">
+        <v>45950</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>45859</v>
       </c>
@@ -18216,8 +18338,14 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="2">
+        <v>45951</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>45860</v>
       </c>
@@ -18236,8 +18364,14 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2">
+        <v>45952</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>45861</v>
       </c>
@@ -18256,8 +18390,14 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2">
+        <v>45953</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>45862</v>
       </c>
@@ -18276,8 +18416,14 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2">
+        <v>45954</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>45863</v>
       </c>
@@ -18296,8 +18442,14 @@
       <c r="G25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="2">
+        <v>45955</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>45864</v>
       </c>
@@ -18316,8 +18468,14 @@
       <c r="G26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="2">
+        <v>45956</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>45865</v>
       </c>
@@ -18336,8 +18494,14 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="2">
+        <v>45957</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>45866</v>
       </c>
@@ -18356,8 +18520,14 @@
       <c r="G28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="2">
+        <v>45958</v>
+      </c>
+      <c r="I28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>45867</v>
       </c>
@@ -18376,8 +18546,14 @@
       <c r="G29">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="2">
+        <v>45959</v>
+      </c>
+      <c r="I29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>45868</v>
       </c>
@@ -18396,8 +18572,14 @@
       <c r="G30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="H30" s="2">
+        <v>45960</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>45869</v>
       </c>
@@ -18411,8 +18593,14 @@
         <v>0</v>
       </c>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="H31" s="2">
+        <v>45961</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32">
         <v>33.5</v>
       </c>
@@ -18421,6 +18609,9 @@
       </c>
       <c r="G32">
         <v>45</v>
+      </c>
+      <c r="I32">
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>
@@ -18459,8 +18650,8 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -6011,13 +6011,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3" tint="-0.25"/>
-        <rFont val="AR PL UKai CN"/>
-        <charset val="134"/>
-      </rPr>
       <t>进入</t>
     </r>
     <r>
@@ -15811,7 +15804,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3" tint="-0.25"/>
-      <name val="Chilanka"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15958,9 +15951,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="Chilanka"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15971,16 +15971,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="AR PL UKai CN"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15991,17 +15990,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -17787,7 +17780,7 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -18650,8 +18643,8 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="B216" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -19659,8 +19652,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112:B126"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -6011,6 +6011,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="-0.25"/>
+        <rFont val="AR PL UKai CN"/>
+        <charset val="134"/>
+      </rPr>
       <t>进入</t>
     </r>
     <r>
@@ -10461,12 +10468,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Chilanka"/>
-        <charset val="134"/>
-      </rPr>
       <t>application</t>
     </r>
     <r>
@@ -15951,6 +15952,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3" tint="-0.25"/>
@@ -15964,23 +15977,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -15990,11 +15991,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -19652,8 +19653,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -10468,6 +10468,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Chilanka"/>
+        <charset val="134"/>
+      </rPr>
       <t>application</t>
     </r>
     <r>
@@ -15952,9 +15958,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="Chilanka"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15966,28 +15992,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
-      <name val="Chilanka"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15995,12 +16007,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -17779,10 +17785,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -17791,9 +17797,10 @@
     <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="9.125"/>
+    <col min="10" max="10" width="9.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="2">
         <v>45839</v>
       </c>
@@ -17818,8 +17825,14 @@
       <c r="I1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2">
+        <v>45962</v>
+      </c>
+      <c r="K1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>45840</v>
       </c>
@@ -17844,8 +17857,14 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2">
+        <v>45963</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>45841</v>
       </c>
@@ -17870,8 +17889,14 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="2">
+        <v>45964</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>45842</v>
       </c>
@@ -17896,8 +17921,14 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="2">
+        <v>45965</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>45843</v>
       </c>
@@ -17922,8 +17953,14 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="2">
+        <v>45966</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>45844</v>
       </c>
@@ -17948,8 +17985,14 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="2">
+        <v>45967</v>
+      </c>
+      <c r="K6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>45845</v>
       </c>
@@ -17974,8 +18017,14 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="2">
+        <v>45968</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>45846</v>
       </c>
@@ -18000,8 +18049,11 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="2">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>45847</v>
       </c>
@@ -18026,8 +18078,11 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="2">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>45848</v>
       </c>
@@ -18052,8 +18107,11 @@
       <c r="I10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="2">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>45849</v>
       </c>
@@ -18078,8 +18136,11 @@
       <c r="I11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="2">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>45850</v>
       </c>
@@ -18104,8 +18165,11 @@
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="2">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>45851</v>
       </c>
@@ -18130,8 +18194,11 @@
       <c r="I13">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="2">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>45852</v>
       </c>
@@ -18156,8 +18223,11 @@
       <c r="I14">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="2">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>45853</v>
       </c>
@@ -18182,8 +18252,11 @@
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="2">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>45854</v>
       </c>
@@ -18208,8 +18281,11 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="2">
+        <v>45977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>45855</v>
       </c>
@@ -18234,8 +18310,11 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="2">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>45856</v>
       </c>
@@ -18260,8 +18339,11 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="2">
+        <v>45979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>45857</v>
       </c>
@@ -18286,8 +18368,11 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="2">
+        <v>45980</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>45858</v>
       </c>
@@ -18312,8 +18397,11 @@
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="2">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>45859</v>
       </c>
@@ -18338,8 +18426,11 @@
       <c r="I21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="2">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>45860</v>
       </c>
@@ -18364,8 +18455,11 @@
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="2">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>45861</v>
       </c>
@@ -18390,8 +18484,11 @@
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="2">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>45862</v>
       </c>
@@ -18416,8 +18513,11 @@
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="2">
+        <v>45985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>45863</v>
       </c>
@@ -18442,8 +18542,11 @@
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="2">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>45864</v>
       </c>
@@ -18468,8 +18571,11 @@
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="2">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>45865</v>
       </c>
@@ -18494,8 +18600,11 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="2">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>45866</v>
       </c>
@@ -18520,8 +18629,11 @@
       <c r="I28">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="2">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>45867</v>
       </c>
@@ -18546,8 +18658,11 @@
       <c r="I29">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="2">
+        <v>45990</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>45868</v>
       </c>
@@ -18572,8 +18687,11 @@
       <c r="I30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="2">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>45869</v>
       </c>
@@ -18593,8 +18711,9 @@
       <c r="I31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:9">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32">
         <v>33.5</v>
       </c>
@@ -18607,6 +18726,7 @@
       <c r="I32">
         <v>17.5</v>
       </c>
+      <c r="J32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19653,7 +19773,7 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A98" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A98" workbookViewId="0">
       <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -10468,12 +10468,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Chilanka"/>
-        <charset val="134"/>
-      </rPr>
       <t>application</t>
     </r>
     <r>
@@ -10519,10 +10513,15 @@
 -Dnacos_config_namespace=302fa503-340b-4103-bab3-23b6a387b2a8
 -Dnacos_discovery_namespace=302fa503-340b-4103-bab3-23b6a387b2a8
 -Dux168_secret_key=123456789012
--Denv.event.kafka.enabled=false
+-Denv.spring.cloud.nacos.discovery.enabled=true
+-Denv.spring.cloud.nacos.discovery.register-enabled=true
+-Denv.xxl.job.enabled=false
+-Denv.event.kafka.enabled=true
 -Denv.kafka.enabled=false
 -Denv.event.rocketmq.enabled=true
 -Denv.rocketmq.enabled=false
+-Denv.event.rabbitmq.enabled=true
+-Denv.rabbitmq.enabled=false
 -Dpa-biz-service-url=http://localhost:9022</t>
     </r>
   </si>
@@ -15762,13 +15761,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Chilanka"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -15782,6 +15774,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Chilanka"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -15960,8 +15959,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
-      <name val="Chilanka"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15972,15 +15990,10 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="Chilanka"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15990,20 +16003,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -16336,7 +16335,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16509,6 +16508,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -16518,20 +16520,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -17753,7 +17752,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2">
       <c r="B12">
         <v>23</v>
       </c>
@@ -17787,7 +17786,7 @@
   <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -18024,7 +18023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>45846</v>
       </c>
@@ -18053,7 +18052,7 @@
         <v>45969</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>45847</v>
       </c>
@@ -18082,7 +18081,7 @@
         <v>45970</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>45848</v>
       </c>
@@ -18111,7 +18110,7 @@
         <v>45971</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>45849</v>
       </c>
@@ -18140,7 +18139,7 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>45850</v>
       </c>
@@ -18169,7 +18168,7 @@
         <v>45973</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>45851</v>
       </c>
@@ -18198,7 +18197,7 @@
         <v>45974</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>45852</v>
       </c>
@@ -18227,7 +18226,7 @@
         <v>45975</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>45853</v>
       </c>
@@ -18256,7 +18255,7 @@
         <v>45976</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>45854</v>
       </c>
@@ -18713,7 +18712,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="1:10">
       <c r="B32">
         <v>33.5</v>
       </c>
@@ -18779,7 +18778,7 @@
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:7">
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
@@ -18787,7 +18786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:7">
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
@@ -18795,7 +18794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="37.5" spans="2:3">
+    <row r="3" ht="37.5" spans="2:7">
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -18803,7 +18802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
@@ -18811,7 +18810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
@@ -18819,7 +18818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:7">
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -18827,7 +18826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:7">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -18849,7 +18848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
@@ -18868,7 +18867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:7">
       <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
@@ -18876,7 +18875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="56.25" spans="2:3">
+    <row r="18" ht="56.25" spans="1:4">
       <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
@@ -18884,7 +18883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:4">
       <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
@@ -18892,7 +18891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:4">
       <c r="B22" s="5" t="s">
         <v>37</v>
       </c>
@@ -18900,12 +18899,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:4">
       <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
@@ -18916,12 +18915,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" ht="150" spans="2:4">
+    <row r="26" ht="150" spans="1:4">
       <c r="B26" s="5" t="s">
         <v>44</v>
       </c>
@@ -18932,7 +18931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:4">
       <c r="B27" s="5" t="s">
         <v>47</v>
       </c>
@@ -18940,32 +18939,32 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="1:4">
       <c r="C28" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="1:4">
       <c r="C29" s="27"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="1:4">
       <c r="C30" s="27"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="1:4">
       <c r="C31" s="27"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="1:4">
       <c r="C32" s="27"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="2:4">
       <c r="C33" s="27"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="2:4">
       <c r="D34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" ht="56.25" spans="2:3">
+    <row r="36" ht="56.25" spans="2:4">
       <c r="B36" s="5" t="s">
         <v>51</v>
       </c>
@@ -18973,7 +18972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:4">
       <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
@@ -18981,16 +18980,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="2:4">
       <c r="C40" s="28"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="2:4">
       <c r="C41" s="28"/>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="2:4">
       <c r="C42" s="28"/>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="2:4">
       <c r="C45" s="5" t="s">
         <v>55</v>
       </c>
@@ -19020,7 +19019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:13">
       <c r="B51" s="5" t="s">
         <v>63</v>
       </c>
@@ -19028,7 +19027,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:13">
       <c r="B52" s="5" t="s">
         <v>65</v>
       </c>
@@ -19036,12 +19035,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:13">
       <c r="B55" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:13">
       <c r="B56" s="5" t="s">
         <v>68</v>
       </c>
@@ -19049,7 +19048,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:13">
       <c r="B57" s="5" t="s">
         <v>70</v>
       </c>
@@ -19057,62 +19056,62 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="16" t="s">
+    <row r="59" spans="2:13">
+      <c r="B59" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="16"/>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-    </row>
-    <row r="71" spans="2:2">
+      <c r="C59" s="17"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+    </row>
+    <row r="71" spans="2:4">
       <c r="B71" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" ht="37.5" spans="2:3">
+    <row r="72" ht="37.5" spans="2:4">
       <c r="B72" s="5" t="s">
         <v>74</v>
       </c>
@@ -19173,17 +19172,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:3">
       <c r="B86" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:3">
       <c r="B87" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:3">
       <c r="B88" s="5" t="s">
         <v>91</v>
       </c>
@@ -19204,17 +19203,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:3">
       <c r="B99" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:3">
       <c r="B100" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:3">
       <c r="B102" s="5" t="s">
         <v>98</v>
       </c>
@@ -19227,7 +19226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" ht="112.5" spans="2:2">
+    <row r="109" ht="112.5" spans="2:3">
       <c r="B109" s="9" t="s">
         <v>101</v>
       </c>
@@ -19250,37 +19249,37 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:3">
       <c r="B130" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:3">
       <c r="B132" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:3">
       <c r="B134" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:3">
       <c r="B136" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:3">
       <c r="B138" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:3">
       <c r="B140" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="2:3">
       <c r="B141" s="5" t="s">
         <v>112</v>
       </c>
@@ -19293,7 +19292,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="147" spans="2:3">
+    <row r="147" spans="1:3">
       <c r="B147" s="5" t="s">
         <v>115</v>
       </c>
@@ -19301,7 +19300,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="148" spans="2:3">
+    <row r="148" spans="1:3">
       <c r="B148" s="5" t="s">
         <v>117</v>
       </c>
@@ -19309,7 +19308,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="149" spans="2:3">
+    <row r="149" spans="1:3">
       <c r="B149" s="31" t="s">
         <v>119</v>
       </c>
@@ -19317,19 +19316,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="2:3">
+    <row r="150" spans="1:3">
       <c r="B150" s="31"/>
       <c r="C150" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="2:3">
+    <row r="151" spans="1:3">
       <c r="B151" s="31"/>
       <c r="C151" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="154" spans="2:3">
+    <row r="154" spans="1:3">
       <c r="B154" s="5" t="s">
         <v>123</v>
       </c>
@@ -19337,7 +19336,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:3">
       <c r="A157" s="5" t="s">
         <v>125</v>
       </c>
@@ -19345,27 +19344,27 @@
         <v>126</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="2:3">
       <c r="B163" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="2:3">
       <c r="B164" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="2:3">
       <c r="B165" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="2:3">
       <c r="B166" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:3">
       <c r="B167" s="5" t="s">
         <v>131</v>
       </c>
@@ -19418,102 +19417,102 @@
         <v>142</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="2:3">
       <c r="B183" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="2:3">
       <c r="B185" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="2:3">
       <c r="B186" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="2:3">
       <c r="B187" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="2:3">
       <c r="B190" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="2:3">
       <c r="B191" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="2:3">
       <c r="B192" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="2:3">
       <c r="B193" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="2:3">
       <c r="B198" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="2:3">
       <c r="B199" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="2:3">
       <c r="B200" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="2:3">
       <c r="B202" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="2:3">
       <c r="B203" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
+    <row r="204" spans="2:3">
       <c r="B204" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="207" spans="3:3">
+    <row r="207" spans="2:3">
       <c r="C207" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="2:7">
       <c r="B209" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="212" spans="3:3">
+    <row r="212" spans="2:7">
       <c r="C212" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="2:7">
       <c r="B213" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="2:7">
       <c r="B214" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="215" ht="158.25" spans="2:3">
+    <row r="215" ht="158.25" spans="2:7">
       <c r="B215" s="9" t="s">
         <v>162</v>
       </c>
@@ -19521,18 +19520,18 @@
         <v>163</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
+    <row r="216" spans="2:7">
       <c r="B216" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="2:7">
       <c r="B218" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="221" ht="243.75" spans="2:7">
-      <c r="B221" s="18" t="s">
+      <c r="B221" s="21" t="s">
         <v>166</v>
       </c>
       <c r="C221" s="5" t="s">
@@ -19545,7 +19544,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="222" ht="409.5" spans="2:4">
+    <row r="222" ht="409.5" spans="2:7">
       <c r="B222" s="33" t="s">
         <v>170</v>
       </c>
@@ -19556,7 +19555,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="226" ht="131.25" spans="2:2">
+    <row r="226" ht="131.25" spans="1:2">
       <c r="B226" s="9" t="s">
         <v>173</v>
       </c>
@@ -19565,7 +19564,7 @@
       <c r="A229" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B229" s="18" t="s">
+      <c r="B229" s="21" t="s">
         <v>175</v>
       </c>
     </row>
@@ -19577,31 +19576,31 @@
         <v>177</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="1:4">
       <c r="B241" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:4">
       <c r="A243" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B243" s="15" t="s">
+      <c r="B243" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C243" s="15"/>
-    </row>
-    <row r="247" spans="2:2">
+      <c r="C243" s="16"/>
+    </row>
+    <row r="247" spans="1:4">
       <c r="B247" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="1:4">
       <c r="B248" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:4">
       <c r="A251" s="5" t="s">
         <v>183</v>
       </c>
@@ -19609,12 +19608,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="253" spans="2:2">
+    <row r="253" spans="1:4">
       <c r="B253" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="256" ht="409.5" spans="2:4">
+    <row r="256" ht="409.5" spans="1:4">
       <c r="B256" s="35" t="s">
         <v>186</v>
       </c>
@@ -19622,12 +19621,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="258" ht="313.5" spans="2:2">
+    <row r="258" ht="313.5" spans="1:4">
       <c r="B258" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:4">
       <c r="A261" s="5" t="s">
         <v>189</v>
       </c>
@@ -19638,12 +19637,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="1:4">
       <c r="B263" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="264" ht="56.25" spans="1:2">
+    <row r="264" ht="56.25" spans="1:4">
       <c r="A264" s="5" t="s">
         <v>193</v>
       </c>
@@ -19651,7 +19650,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="266" spans="3:3">
+    <row r="266" spans="1:4">
       <c r="C266" s="5" t="s">
         <v>195</v>
       </c>
@@ -19667,7 +19666,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="274" ht="409.5" spans="2:3">
+    <row r="274" ht="409.5" spans="1:3">
       <c r="B274" s="9" t="s">
         <v>199</v>
       </c>
@@ -19675,7 +19674,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:3">
       <c r="A279" s="5" t="s">
         <v>201</v>
       </c>
@@ -19683,7 +19682,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:3">
       <c r="A280" s="5" t="s">
         <v>203</v>
       </c>
@@ -19691,17 +19690,17 @@
         <v>204</v>
       </c>
     </row>
-    <row r="283" spans="2:2">
+    <row r="283" spans="1:3">
       <c r="B283" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="306" spans="2:2">
+    <row r="306" spans="2:3">
       <c r="B306" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="307" spans="3:3">
+    <row r="307" spans="2:3">
       <c r="C307" s="37" t="s">
         <v>207</v>
       </c>
@@ -19724,19 +19723,19 @@
       </c>
       <c r="C310" s="30"/>
     </row>
-    <row r="311" spans="3:3">
+    <row r="311" spans="2:3">
       <c r="C311" s="30"/>
     </row>
-    <row r="312" spans="3:3">
+    <row r="312" spans="2:3">
       <c r="C312" s="30"/>
     </row>
-    <row r="313" spans="3:3">
+    <row r="313" spans="2:3">
       <c r="C313" s="30"/>
     </row>
-    <row r="314" spans="3:3">
+    <row r="314" spans="2:3">
       <c r="C314" s="30"/>
     </row>
-    <row r="316" spans="2:2">
+    <row r="316" spans="2:3">
       <c r="B316" s="5" t="s">
         <v>211</v>
       </c>
@@ -19773,8 +19772,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -19788,7 +19787,7 @@
     <col min="7" max="7" width="62.65" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:15">
       <c r="A1" s="5" t="s">
         <v>212</v>
       </c>
@@ -19808,7 +19807,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:15">
       <c r="A2" s="5">
         <v>3009</v>
       </c>
@@ -19828,7 +19827,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:15">
       <c r="A3" s="13">
         <v>3010</v>
       </c>
@@ -19839,7 +19838,7 @@
         <v>30010</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:15">
       <c r="A4" s="13">
         <v>3013</v>
       </c>
@@ -19850,7 +19849,7 @@
         <v>30013</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:15">
       <c r="A5" s="13">
         <v>3015</v>
       </c>
@@ -19870,7 +19869,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:15">
       <c r="A6" s="5">
         <v>3016</v>
       </c>
@@ -19884,7 +19883,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:15">
       <c r="A7" s="13">
         <v>3022</v>
       </c>
@@ -19898,7 +19897,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:15">
       <c r="A8" s="13">
         <v>3023</v>
       </c>
@@ -19931,15 +19930,15 @@
       <c r="D9" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="13">
@@ -19954,15 +19953,15 @@
       <c r="D10" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="13">
         <v>3033</v>
       </c>
@@ -19981,14 +19980,14 @@
       <c r="F11" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="5">
         <v>3035</v>
       </c>
@@ -20007,14 +20006,14 @@
       <c r="F12" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="5">
         <v>3044</v>
       </c>
@@ -20033,14 +20032,14 @@
       <c r="F13" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="5">
         <v>3045</v>
       </c>
@@ -20050,14 +20049,14 @@
       <c r="C14" s="5">
         <v>30045</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="5">
         <v>8001</v>
       </c>
@@ -20074,7 +20073,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:12">
       <c r="A17" s="5">
         <v>3047</v>
       </c>
@@ -20094,14 +20093,14 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:12">
       <c r="A18" s="5">
         <v>7000</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>249</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -20111,70 +20110,70 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:12">
       <c r="B20" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" spans="1:12">
       <c r="C23" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="B24" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="B25" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="I25" s="20" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="I25" s="18" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="4:6">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="4:12">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="L27" s="21" t="s">
+    <row r="26" spans="1:12">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="L27" s="19" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="28" ht="37.5" spans="2:7">
+    <row r="28" ht="37.5" spans="1:12">
       <c r="B28" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:12">
       <c r="B29" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" ht="93.75" spans="2:4">
+    <row r="30" ht="93.75" spans="1:12">
       <c r="B30" s="9" t="s">
         <v>261</v>
       </c>
@@ -20182,12 +20181,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:12">
       <c r="B31" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="1:12">
       <c r="D32" s="5" t="s">
         <v>264</v>
       </c>
@@ -20195,49 +20194,49 @@
         <v>265</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:7">
       <c r="B33" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="34" ht="75" spans="2:4">
+    <row r="34" ht="75" spans="2:7">
       <c r="B34" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="20" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="2:7">
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:7">
       <c r="B36" s="5" t="s">
         <v>269</v>
       </c>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" ht="93.75" spans="7:7">
+    <row r="37" ht="93.75" spans="2:7">
       <c r="G37" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:7">
       <c r="B38" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:7">
       <c r="B39" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:7">
       <c r="B40" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:7">
       <c r="B41" s="5" t="s">
         <v>274</v>
       </c>
@@ -20254,7 +20253,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:7">
       <c r="B44" s="13" t="s">
         <v>278</v>
       </c>
@@ -20263,22 +20262,22 @@
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:7">
       <c r="B46" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:7">
       <c r="B47" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:7">
       <c r="B48" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="49" ht="75" spans="2:2">
+    <row r="49" ht="75" spans="1:4">
       <c r="B49" s="9" t="s">
         <v>283</v>
       </c>
@@ -20294,17 +20293,17 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="14" t="s">
+    <row r="51" spans="1:4">
+      <c r="C51" s="15" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="14" t="s">
+    <row r="52" spans="1:4">
+      <c r="C52" s="15" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" s="5" t="s">
         <v>289</v>
       </c>
@@ -20315,15 +20314,15 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="14" t="s">
+    <row r="54" spans="1:4">
+      <c r="C54" s="15" t="s">
         <v>292</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="1:4">
       <c r="B55" s="9" t="s">
         <v>294</v>
       </c>
@@ -20334,84 +20333,84 @@
         <v>296</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="18" t="s">
+    <row r="57" spans="1:4">
+      <c r="B57" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-    </row>
-    <row r="68" spans="2:2">
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="B68" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:4">
       <c r="B69" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="1:4">
       <c r="B70" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="1:4">
       <c r="B71" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:4">
       <c r="B75" s="8" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:4">
       <c r="A79" s="5" t="s">
         <v>303</v>
       </c>
@@ -20419,22 +20418,22 @@
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="2:4">
       <c r="D83" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:4">
       <c r="B85" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:4">
       <c r="B86" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="2:4">
       <c r="C87" s="5" t="s">
         <v>308</v>
       </c>
@@ -20442,12 +20441,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="2:4">
       <c r="C88" s="22" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="94" ht="112.5" spans="2:3">
+    <row r="94" ht="112.5" spans="2:4">
       <c r="B94" s="9" t="s">
         <v>311</v>
       </c>
@@ -20470,11 +20469,11 @@
       <c r="B98" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="15" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="2:4">
       <c r="B101" s="5" t="s">
         <v>318</v>
       </c>
@@ -20482,7 +20481,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="105" ht="393.75" spans="3:4">
+    <row r="105" ht="393.75" spans="2:4">
       <c r="C105" s="9" t="s">
         <v>320</v>
       </c>
@@ -20490,7 +20489,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
+    <row r="109" spans="2:4">
       <c r="B109" s="5" t="s">
         <v>322</v>
       </c>
@@ -20498,7 +20497,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
+    <row r="112" spans="2:4">
       <c r="B112" s="23" t="s">
         <v>324</v>
       </c>
@@ -20506,10 +20505,10 @@
         <v>325</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:3">
       <c r="B113" s="24"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:3">
       <c r="B114" s="24"/>
     </row>
     <row r="115" spans="2:3">
@@ -20520,44 +20519,44 @@
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="24"/>
-      <c r="C116" s="15"/>
+      <c r="C116" s="16"/>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" s="24"/>
-      <c r="C117" s="15"/>
+      <c r="C117" s="16"/>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" s="24"/>
-      <c r="C118" s="15"/>
+      <c r="C118" s="16"/>
     </row>
     <row r="119" spans="2:3">
       <c r="B119" s="24"/>
-      <c r="C119" s="15"/>
+      <c r="C119" s="16"/>
     </row>
     <row r="120" spans="2:3">
       <c r="B120" s="24"/>
-      <c r="C120" s="15"/>
+      <c r="C120" s="16"/>
     </row>
     <row r="121" spans="2:3">
       <c r="B121" s="24"/>
-      <c r="C121" s="15"/>
-    </row>
-    <row r="122" spans="2:2">
+      <c r="C121" s="16"/>
+    </row>
+    <row r="122" spans="2:3">
       <c r="B122" s="24"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:3">
       <c r="B123" s="24"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:3">
       <c r="B124" s="24"/>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:3">
       <c r="B125" s="24"/>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:3">
       <c r="B126" s="24"/>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:3">
       <c r="B128" s="22" t="s">
         <v>327</v>
       </c>
@@ -20570,17 +20569,17 @@
         <v>329</v>
       </c>
     </row>
-    <row r="131" ht="110.25" spans="2:2">
+    <row r="131" ht="110.25" spans="2:4">
       <c r="B131" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="2:4">
       <c r="C133" s="22" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="134" ht="225" spans="3:4">
+    <row r="134" ht="225" spans="2:4">
       <c r="C134" s="9" t="s">
         <v>332</v>
       </c>
@@ -20631,52 +20630,52 @@
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>343</v>
       </c>
@@ -20742,7 +20741,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
         <v>353</v>
       </c>
@@ -20753,7 +20752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:4">
       <c r="B3" s="5" t="s">
         <v>355</v>
       </c>
@@ -20761,7 +20760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:4">
       <c r="B4" s="5" t="s">
         <v>356</v>
       </c>
@@ -20769,7 +20768,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:4">
       <c r="B5" s="5" t="s">
         <v>357</v>
       </c>
@@ -20777,7 +20776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:4">
       <c r="B6" s="5" t="s">
         <v>358</v>
       </c>
@@ -20785,7 +20784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:4">
       <c r="B7" s="5" t="s">
         <v>359</v>
       </c>
@@ -20793,7 +20792,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:4">
       <c r="B8" s="5" t="s">
         <v>361</v>
       </c>
@@ -20801,7 +20800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
         <v>353</v>
       </c>
@@ -20831,7 +20830,7 @@
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:7">
       <c r="B1" s="5" t="s">
         <v>362</v>
       </c>
@@ -20845,7 +20844,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:7">
       <c r="B2" s="5" t="s">
         <v>366</v>
       </c>
@@ -20859,7 +20858,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
         <v>370</v>
       </c>
@@ -20873,7 +20872,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
         <v>374</v>
       </c>
@@ -20887,7 +20886,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:7">
       <c r="B5" s="5" t="s">
         <v>378</v>
       </c>
@@ -20901,7 +20900,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" ht="37.5" spans="2:2">
+    <row r="7" ht="37.5" spans="2:7">
       <c r="B7" s="9" t="s">
         <v>381</v>
       </c>
@@ -20922,15 +20921,15 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="2:7">
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:7">
       <c r="B16" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="1:3">
       <c r="B18" s="5" t="s">
         <v>387</v>
       </c>
@@ -20938,7 +20937,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:3">
       <c r="B19" s="5" t="s">
         <v>389</v>
       </c>
@@ -20946,7 +20945,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:3">
       <c r="B20" s="5" t="s">
         <v>391</v>
       </c>
@@ -20954,7 +20953,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:3">
       <c r="B22" s="5" t="s">
         <v>393</v>
       </c>
@@ -20962,7 +20961,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:3">
       <c r="B23" s="5" t="s">
         <v>395</v>
       </c>
@@ -20981,7 +20980,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:3">
       <c r="B25" s="5" t="s">
         <v>400</v>
       </c>
@@ -20989,7 +20988,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:3">
       <c r="B26" s="5" t="s">
         <v>402</v>
       </c>
@@ -20997,7 +20996,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:3">
       <c r="B27" s="5" t="s">
         <v>404</v>
       </c>
@@ -21005,7 +21004,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:3">
       <c r="B28" s="5" t="s">
         <v>406</v>
       </c>
@@ -21013,7 +21012,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:3">
       <c r="B29" s="5" t="s">
         <v>408</v>
       </c>
@@ -21021,7 +21020,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:3">
       <c r="B30" s="5" t="s">
         <v>410</v>
       </c>
@@ -21029,7 +21028,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:3">
       <c r="B31" s="5" t="s">
         <v>412</v>
       </c>
@@ -21093,7 +21092,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:3">
       <c r="B45" s="5" t="s">
         <v>428</v>
       </c>
@@ -21122,7 +21121,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="2:3">
       <c r="C54" s="5" t="s">
         <v>435</v>
       </c>
@@ -21143,32 +21142,32 @@
         <v>439</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:3">
       <c r="B58" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:3">
       <c r="B59" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:3">
       <c r="B60" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:3">
       <c r="B61" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:3">
       <c r="B62" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
         <v>445</v>
       </c>
@@ -21176,7 +21175,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
         <v>447</v>
       </c>
@@ -21184,7 +21183,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="1:3">
       <c r="B69" s="5" t="s">
         <v>449</v>
       </c>
@@ -21192,12 +21191,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="1:3">
       <c r="C73" s="8" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="1:3">
       <c r="B77" s="5" t="s">
         <v>452</v>
       </c>
@@ -21205,7 +21204,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="1:3">
       <c r="B79" s="5" t="s">
         <v>454</v>
       </c>
@@ -21492,7 +21491,7 @@
         <v>8829</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:3">
       <c r="C13" s="5" t="s">
         <v>499</v>
       </c>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -5927,12 +5927,13 @@
     </r>
   </si>
   <si>
-    <t>[xdebug]
-zend_extension = /usr/lib/php/20210902/xdebug.so
+    <t xml:space="preserve">[xdebug]
+zend_extension = /usr/local/webserver/php/lib/php/extensions/no-debug-non-zts-20151012/xdebug.so
 xdebug.remote_enable=1
 xdebug.remote_host=172.16.29.23
 xdebug.remote_port=9000
-xdebug.idekey = PHPSTORM</t>
+xdebug.idekey = PHPSTORM
+</t>
   </si>
   <si>
     <r>
@@ -10468,6 +10469,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Chilanka"/>
+        <charset val="134"/>
+      </rPr>
       <t>application</t>
     </r>
     <r>
@@ -15957,28 +15964,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -15990,10 +15977,29 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
-      <name val="Chilanka"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -16003,9 +16009,10 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="Chilanka"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -17787,7 +17794,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -18051,6 +18058,9 @@
       <c r="J8" s="2">
         <v>45969</v>
       </c>
+      <c r="K8">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2">
@@ -18080,6 +18090,9 @@
       <c r="J9" s="2">
         <v>45970</v>
       </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
@@ -18109,6 +18122,9 @@
       <c r="J10" s="2">
         <v>45971</v>
       </c>
+      <c r="K10">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
@@ -18138,6 +18154,9 @@
       <c r="J11" s="2">
         <v>45972</v>
       </c>
+      <c r="K11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2">
@@ -18167,6 +18186,9 @@
       <c r="J12" s="2">
         <v>45973</v>
       </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
@@ -18196,6 +18218,9 @@
       <c r="J13" s="2">
         <v>45974</v>
       </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
@@ -18225,6 +18250,9 @@
       <c r="J14" s="2">
         <v>45975</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
@@ -18254,6 +18282,9 @@
       <c r="J15" s="2">
         <v>45976</v>
       </c>
+      <c r="K15">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2">
@@ -18283,8 +18314,11 @@
       <c r="J16" s="2">
         <v>45977</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>45855</v>
       </c>
@@ -18312,8 +18346,11 @@
       <c r="J17" s="2">
         <v>45978</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>45856</v>
       </c>
@@ -18341,8 +18378,11 @@
       <c r="J18" s="2">
         <v>45979</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>45857</v>
       </c>
@@ -18370,8 +18410,11 @@
       <c r="J19" s="2">
         <v>45980</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>45858</v>
       </c>
@@ -18399,8 +18442,11 @@
       <c r="J20" s="2">
         <v>45981</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>45859</v>
       </c>
@@ -18428,8 +18474,11 @@
       <c r="J21" s="2">
         <v>45982</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>45860</v>
       </c>
@@ -18457,8 +18506,11 @@
       <c r="J22" s="2">
         <v>45983</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>45861</v>
       </c>
@@ -18486,8 +18538,11 @@
       <c r="J23" s="2">
         <v>45984</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>45862</v>
       </c>
@@ -18515,8 +18570,11 @@
       <c r="J24" s="2">
         <v>45985</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>45863</v>
       </c>
@@ -18544,8 +18602,11 @@
       <c r="J25" s="2">
         <v>45986</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>45864</v>
       </c>
@@ -18573,8 +18634,11 @@
       <c r="J26" s="2">
         <v>45987</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>45865</v>
       </c>
@@ -18602,8 +18666,11 @@
       <c r="J27" s="2">
         <v>45988</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>45866</v>
       </c>
@@ -18631,8 +18698,11 @@
       <c r="J28" s="2">
         <v>45989</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>45867</v>
       </c>
@@ -18660,8 +18730,11 @@
       <c r="J29" s="2">
         <v>45990</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>45868</v>
       </c>
@@ -18689,8 +18762,11 @@
       <c r="J30" s="2">
         <v>45991</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>45869</v>
       </c>
@@ -18712,7 +18788,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="B32">
         <v>33.5</v>
       </c>
@@ -18726,6 +18802,9 @@
         <v>17.5</v>
       </c>
       <c r="J32" s="2"/>
+      <c r="K32">
+        <v>41.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18763,8 +18842,8 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView topLeftCell="B216" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+    <sheetView tabSelected="1" topLeftCell="B216" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -19772,8 +19851,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="1"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -17,10 +17,8 @@
     <sheet name="主机配件" sheetId="11" r:id="rId8"/>
     <sheet name="工时记录" sheetId="12" state="hidden" r:id="rId9"/>
     <sheet name="临时截图" sheetId="17" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId11"/>
-    <sheet name="设置restful xdebug" sheetId="20" r:id="rId12"/>
-    <sheet name="月进度" sheetId="21" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="22" r:id="rId14"/>
+    <sheet name="设置restful xdebug" sheetId="20" r:id="rId11"/>
+    <sheet name="月进度" sheetId="21" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="502">
   <si>
     <t>MRO - 产品清单页面增加到货数和到货率统计</t>
   </si>
@@ -5835,12 +5833,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Chilanka"/>
-        <charset val="134"/>
-      </rPr>
       <t>google</t>
     </r>
     <r>
@@ -15698,34 +15690,24 @@
   <si>
     <t>10083  [袁鹏峰]-PA：新品流程追踪，更换数据源</t>
   </si>
-  <si>
-    <t>QD202509170018</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color rgb="FF6AAB73"/>
-      <name val="JetBrains Mono"/>
-      <charset val="134"/>
     </font>
     <font>
       <strike/>
@@ -15964,6 +15946,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="AR PL UKai CN"/>
@@ -15977,12 +15977,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -15992,27 +15986,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="AR PL UKai CN"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="Chilanka"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
-      <name val="Chilanka"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -16342,13 +16324,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16357,232 +16342,223 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16955,95 +16931,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2072640" y="2971800"/>
-          <a:ext cx="5527040" cy="10877550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>195580</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>322580</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2959100" y="238125"/>
-          <a:ext cx="13944600" cy="5162550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -17663,117 +17550,6 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="18" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>5.8</v>
-      </c>
-      <c r="B1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4">
-        <v>5.1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>5.12</v>
-      </c>
-      <c r="B3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>5.19</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="B5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5.22</v>
-      </c>
-      <c r="B6">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>5.24</v>
-      </c>
-      <c r="B7">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>5.26</v>
-      </c>
-      <c r="B8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>5.27</v>
-      </c>
-      <c r="B9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>5.28</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>5.29</v>
-      </c>
-      <c r="B11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -17788,7 +17564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K32"/>
@@ -17807,31 +17583,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>45839</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>45870</v>
       </c>
       <c r="E1">
         <v>0.5</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>45901</v>
       </c>
       <c r="G1">
         <v>1.5</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>45931</v>
       </c>
       <c r="I1">
         <v>0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>45962</v>
       </c>
       <c r="K1">
@@ -17839,31 +17615,31 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>45840</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>45871</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>45902</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>45932</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>45963</v>
       </c>
       <c r="K2">
@@ -17871,31 +17647,31 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>45841</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>45872</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>45903</v>
       </c>
       <c r="G3">
         <v>1.5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>45933</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>45964</v>
       </c>
       <c r="K3">
@@ -17903,31 +17679,31 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>45842</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>45873</v>
       </c>
       <c r="E4">
         <v>1.5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>45904</v>
       </c>
       <c r="G4">
         <v>0.5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>45934</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>45965</v>
       </c>
       <c r="K4">
@@ -17935,31 +17711,31 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>45843</v>
       </c>
       <c r="B5">
         <v>5.5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>45874</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>45905</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>45935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>45966</v>
       </c>
       <c r="K5">
@@ -17967,31 +17743,31 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>45844</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>45875</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>45906</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>45936</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>45967</v>
       </c>
       <c r="K6">
@@ -17999,31 +17775,31 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>45845</v>
       </c>
       <c r="B7">
         <v>1.5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>45876</v>
       </c>
       <c r="E7">
         <v>2.5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>45907</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>45937</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>45968</v>
       </c>
       <c r="K7">
@@ -18031,31 +17807,31 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>45846</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>45877</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>45908</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>45938</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>45969</v>
       </c>
       <c r="K8">
@@ -18063,31 +17839,31 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>45847</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>45878</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>45909</v>
       </c>
       <c r="G9">
         <v>1.5</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>45939</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>45970</v>
       </c>
       <c r="K9">
@@ -18095,31 +17871,31 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>45848</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>45879</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>45910</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>45940</v>
       </c>
       <c r="I10">
         <v>4</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>45971</v>
       </c>
       <c r="K10">
@@ -18127,31 +17903,31 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>45849</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>45880</v>
       </c>
       <c r="E11">
         <v>1.5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>45911</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>45941</v>
       </c>
       <c r="I11">
         <v>1.5</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>45972</v>
       </c>
       <c r="K11">
@@ -18159,31 +17935,31 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>45850</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>45881</v>
       </c>
       <c r="E12">
         <v>2.5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>45912</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>45942</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>45973</v>
       </c>
       <c r="K12">
@@ -18191,31 +17967,31 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>45851</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>45882</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>45913</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>45943</v>
       </c>
       <c r="I13">
         <v>2.5</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>45974</v>
       </c>
       <c r="K13">
@@ -18223,31 +17999,31 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>45852</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>45883</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>45914</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>45944</v>
       </c>
       <c r="I14">
         <v>1.5</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>45975</v>
       </c>
       <c r="K14">
@@ -18255,31 +18031,31 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>45853</v>
       </c>
       <c r="B15">
         <v>1.5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>45884</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>0.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>45915</v>
       </c>
       <c r="G15">
         <v>1.5</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>45945</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>45976</v>
       </c>
       <c r="K15">
@@ -18287,31 +18063,31 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>45854</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>45885</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>45916</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>45946</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>45977</v>
       </c>
       <c r="K16">
@@ -18319,31 +18095,31 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>45855</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>45886</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>45917</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>45947</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>45978</v>
       </c>
       <c r="K17">
@@ -18351,31 +18127,31 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>45856</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>45887</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>45918</v>
       </c>
       <c r="G18">
         <v>2.5</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>45948</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>45979</v>
       </c>
       <c r="K18">
@@ -18383,31 +18159,31 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>45857</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>45888</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>45919</v>
       </c>
       <c r="G19">
         <v>0.5</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>45949</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>45980</v>
       </c>
       <c r="K19">
@@ -18415,31 +18191,31 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>45858</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>45889</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>45920</v>
       </c>
       <c r="G20">
         <v>6</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>45950</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>45981</v>
       </c>
       <c r="K20">
@@ -18447,31 +18223,31 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>45859</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>45890</v>
       </c>
       <c r="E21">
         <v>1.5</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>45921</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>45951</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>45982</v>
       </c>
       <c r="K21">
@@ -18479,31 +18255,31 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>45860</v>
       </c>
       <c r="B22">
         <v>0.5</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>45891</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>45922</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>45952</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>45983</v>
       </c>
       <c r="K22">
@@ -18511,31 +18287,31 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>45861</v>
       </c>
       <c r="B23">
         <v>1.5</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>45892</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>45923</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>45953</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>45984</v>
       </c>
       <c r="K23">
@@ -18543,31 +18319,31 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>45862</v>
       </c>
       <c r="B24">
         <v>1.5</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>45893</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>45924</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>45954</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>45985</v>
       </c>
       <c r="K24">
@@ -18575,31 +18351,31 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>45863</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>45894</v>
       </c>
       <c r="E25">
         <v>1.5</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>45925</v>
       </c>
       <c r="G25">
         <v>4</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>45955</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>45986</v>
       </c>
       <c r="K25">
@@ -18607,31 +18383,31 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>45864</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>45895</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>45926</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>45956</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>45987</v>
       </c>
       <c r="K26">
@@ -18639,31 +18415,31 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>45865</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>45896</v>
       </c>
       <c r="E27">
         <v>1.5</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>45927</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>45957</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>45988</v>
       </c>
       <c r="K27">
@@ -18671,31 +18447,31 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>45866</v>
       </c>
       <c r="B28">
         <v>1.5</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>45897</v>
       </c>
       <c r="E28">
         <v>1.5</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>45928</v>
       </c>
       <c r="G28">
         <v>4</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>45958</v>
       </c>
       <c r="I28">
         <v>2.5</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>45989</v>
       </c>
       <c r="K28">
@@ -18703,31 +18479,31 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>45867</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>45898</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>45929</v>
       </c>
       <c r="G29">
         <v>3.5</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>45959</v>
       </c>
       <c r="I29">
         <v>1.5</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>45990</v>
       </c>
       <c r="K29">
@@ -18735,31 +18511,31 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>45868</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>45899</v>
       </c>
       <c r="E30">
         <v>6</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>45930</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>45960</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>45991</v>
       </c>
       <c r="K30">
@@ -18767,26 +18543,26 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>45869</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>45900</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="H31" s="2">
+      <c r="F31" s="1"/>
+      <c r="H31" s="1">
         <v>45961</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:11">
       <c r="B32">
@@ -18801,34 +18577,9 @@
       <c r="I32">
         <v>17.5</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="1"/>
       <c r="K32">
         <v>41.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -18842,980 +18593,980 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B216" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+    <sheetView topLeftCell="B189" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.1333333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="71.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="58.3833333333333" style="5" customWidth="1"/>
-    <col min="5" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="66.625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="22.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.1333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="58.3833333333333" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="66.625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="37.5" spans="2:7">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="409" customHeight="1" spans="2:7">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" ht="131.25" spans="2:7">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" ht="56.25" spans="1:4">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" ht="150" spans="1:4">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="C29" s="27"/>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="C30" s="27"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="C31" s="27"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="C32" s="27"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="C33" s="27"/>
+      <c r="C33" s="25"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" ht="56.25" spans="2:4">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="C40" s="28"/>
+      <c r="C40" s="26"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="C41" s="28"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="C42" s="28"/>
+      <c r="C42" s="26"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" ht="313.5" spans="2:4">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" ht="409.5" spans="2:13">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="M49" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="2:13">
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="17"/>
+      <c r="C59" s="15"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" spans="2:13">
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
     </row>
     <row r="64" spans="2:13">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" ht="37.5" spans="2:4">
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="28" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="31"/>
+      <c r="D75" s="29"/>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D76" s="31"/>
+      <c r="D76" s="29"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" ht="56.25" spans="2:3">
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="32" t="s">
+      <c r="B100" s="30" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="109" ht="112.5" spans="2:3">
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="B149" s="31" t="s">
+      <c r="B149" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="B150" s="31"/>
-      <c r="C150" s="5" t="s">
+      <c r="B150" s="29"/>
+      <c r="C150" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="B151" s="31"/>
-      <c r="C151" s="10" t="s">
+      <c r="B151" s="29"/>
+      <c r="C151" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="5">
+      <c r="B179" s="3">
         <v>221</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="202" spans="2:3">
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="203" spans="2:3">
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="207" spans="2:3">
-      <c r="C207" s="5" t="s">
+      <c r="C207" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="209" spans="2:7">
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="212" spans="2:7">
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="213" spans="2:7">
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="215" ht="158.25" spans="2:7">
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="C215" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="216" spans="2:7">
-      <c r="B216" s="5" t="s">
+      <c r="B216" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="218" spans="2:7">
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="221" ht="243.75" spans="2:7">
-      <c r="B221" s="21" t="s">
+      <c r="B221" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C221" s="5" t="s">
+      <c r="C221" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D221" s="9" t="s">
+      <c r="D221" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G221" s="9" t="s">
+      <c r="G221" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="222" ht="409.5" spans="2:7">
-      <c r="B222" s="33" t="s">
+      <c r="B222" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C222" s="5" t="s">
+      <c r="C222" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D222" s="9" t="s">
+      <c r="D222" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="226" ht="131.25" spans="1:2">
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="229" ht="37.5" spans="1:2">
-      <c r="A229" s="34" t="s">
+      <c r="A229" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B229" s="21" t="s">
+      <c r="B229" s="19" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="B241" s="5" t="s">
+      <c r="B241" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B243" s="16" t="s">
+      <c r="B243" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C243" s="16"/>
+      <c r="C243" s="14"/>
     </row>
     <row r="247" spans="1:4">
-      <c r="B247" s="5" t="s">
+      <c r="B247" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="B248" s="5" t="s">
+      <c r="B248" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="B251" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="B253" s="5" t="s">
+      <c r="B253" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="256" ht="409.5" spans="1:4">
-      <c r="B256" s="35" t="s">
+      <c r="B256" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="D256" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="258" ht="313.5" spans="1:4">
-      <c r="B258" s="9" t="s">
+      <c r="B258" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="5" t="s">
+      <c r="A261" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="B261" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C261" s="36" t="s">
+      <c r="C261" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="B263" s="5" t="s">
+      <c r="B263" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="264" ht="56.25" spans="1:4">
-      <c r="A264" s="5" t="s">
+      <c r="A264" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B264" s="9" t="s">
+      <c r="B264" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="266" spans="1:4">
-      <c r="C266" s="5" t="s">
+      <c r="C266" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="269" ht="356.25" spans="1:4">
-      <c r="A269" s="5" t="s">
+      <c r="A269" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="B269" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D269" s="9" t="s">
+      <c r="D269" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="274" ht="409.5" spans="1:3">
-      <c r="B274" s="9" t="s">
+      <c r="B274" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C274" s="9" t="s">
+      <c r="C274" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="5" t="s">
+      <c r="A279" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="B279" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="5" t="s">
+      <c r="A280" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="B280" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="B283" s="5" t="s">
+      <c r="B283" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="306" spans="2:3">
-      <c r="B306" s="5" t="s">
+      <c r="B306" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="307" spans="2:3">
-      <c r="C307" s="37" t="s">
+      <c r="C307" s="35" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" s="5" t="s">
+      <c r="B308" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C308" s="30"/>
+      <c r="C308" s="28"/>
     </row>
     <row r="309" spans="2:3">
-      <c r="B309" s="5" t="s">
+      <c r="B309" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C309" s="30"/>
+      <c r="C309" s="28"/>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" s="5" t="s">
+      <c r="B310" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C310" s="30"/>
+      <c r="C310" s="28"/>
     </row>
     <row r="311" spans="2:3">
-      <c r="C311" s="30"/>
+      <c r="C311" s="28"/>
     </row>
     <row r="312" spans="2:3">
-      <c r="C312" s="30"/>
+      <c r="C312" s="28"/>
     </row>
     <row r="313" spans="2:3">
-      <c r="C313" s="30"/>
+      <c r="C313" s="28"/>
     </row>
     <row r="314" spans="2:3">
-      <c r="C314" s="30"/>
+      <c r="C314" s="28"/>
     </row>
     <row r="316" spans="2:3">
-      <c r="B316" s="5" t="s">
+      <c r="B316" s="3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19851,818 +19602,818 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A103" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.15" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.525" style="5" customWidth="1"/>
-    <col min="4" max="4" width="76.6166666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="62.65" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.15" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.525" style="3" customWidth="1"/>
+    <col min="4" max="4" width="76.6166666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="62.65" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>3009</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>30009</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>3010</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>30010</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>3013</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>30013</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>3015</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>30015</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>3016</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>30016</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>3022</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>30022</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>3023</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>30023</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>3028</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>30028</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>3031</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>30031</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>3033</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>30033</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>3035</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>30035</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>3044</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>30044</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>3045</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>30045</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>8001</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>3047</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>30047</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>7000</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="I25" s="18" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="I25" s="16" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="L27" s="19" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="L27" s="17" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="28" ht="37.5" spans="1:12">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="5" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="30" ht="93.75" spans="1:12">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="34" ht="75" spans="2:7">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="D35" s="10"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" ht="93.75" spans="2:7">
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="F43" s="5" t="s">
+      <c r="C43" s="11"/>
+      <c r="F43" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="F44" s="5" t="s">
+      <c r="C44" s="11"/>
+      <c r="F44" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="49" ht="75" spans="1:4">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="3" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="13" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="6" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="83" spans="2:4">
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="3" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="87" spans="2:4">
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="7" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="20" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="94" ht="112.5" spans="2:4">
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="8" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="97" ht="243" spans="2:4">
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="3" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="98" ht="262.5" spans="2:4">
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D98" s="13" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="3" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="105" ht="393.75" spans="2:4">
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="109" spans="2:4">
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="3" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="112" spans="2:4">
-      <c r="B112" s="23" t="s">
+      <c r="B112" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="24"/>
+      <c r="B113" s="22"/>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="24"/>
+      <c r="B114" s="22"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="24"/>
-      <c r="C115" s="25" t="s">
+      <c r="B115" s="22"/>
+      <c r="C115" s="23" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="24"/>
-      <c r="C116" s="16"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="14"/>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="24"/>
-      <c r="C117" s="16"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="14"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="24"/>
-      <c r="C118" s="16"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="14"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="24"/>
-      <c r="C119" s="16"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="14"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="24"/>
-      <c r="C120" s="16"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="14"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="24"/>
-      <c r="C121" s="16"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="14"/>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="24"/>
+      <c r="B122" s="22"/>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="24"/>
+      <c r="B123" s="22"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="24"/>
+      <c r="B124" s="22"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="24"/>
+      <c r="B125" s="22"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="24"/>
+      <c r="B126" s="22"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="22" t="s">
+      <c r="B128" s="20" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="129" ht="300" spans="2:4">
-      <c r="B129" s="22" t="s">
+      <c r="B129" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="8" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="131" ht="110.25" spans="2:4">
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="133" spans="2:4">
-      <c r="C133" s="22" t="s">
+      <c r="C133" s="20" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="134" ht="225" spans="2:4">
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="3" t="s">
         <v>333</v>
       </c>
     </row>
@@ -20703,82 +20454,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="92.8" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="41" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="92.8" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="41" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="14" ht="356.25" spans="1:3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="17" ht="131.25" spans="1:1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="19" ht="225" spans="1:1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="21" ht="112.5" spans="1:1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>348</v>
       </c>
     </row>
@@ -20799,88 +20550,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="142" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="29.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="142" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>353</v>
       </c>
     </row>
@@ -20895,461 +20646,461 @@
   <sheetPr/>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="36" style="5" customWidth="1"/>
-    <col min="2" max="2" width="63.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="66.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="36" style="3" customWidth="1"/>
+    <col min="2" max="2" width="63.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="7" ht="37.5" spans="2:7">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="D15" s="9"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="3" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="53" ht="56.25" spans="2:3">
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="3" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="3" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="3" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="3" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="6" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="3" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="3" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="3" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="3" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="3" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="3" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="3" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="3" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="3" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="3" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="3" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="3" t="s">
         <v>467</v>
       </c>
     </row>
@@ -21384,49 +21135,49 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" ht="18.75" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" ht="18.75" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" ht="18.75" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" ht="18.75" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21445,133 +21196,133 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="45.75" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="45.75" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>799</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>1399</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>2527</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5">
         <f>SUM(C2:C11)</f>
         <v>8829</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>499</v>
       </c>
     </row>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="5"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -5833,6 +5833,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Chilanka"/>
+        <charset val="134"/>
+      </rPr>
       <t>google</t>
     </r>
     <r>
@@ -15946,8 +15952,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -15958,8 +15971,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -15970,13 +15984,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -15984,17 +15991,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
-      <name val="Chilanka"/>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="Chilanka"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -17567,10 +17573,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -17580,9 +17586,10 @@
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="9.125"/>
     <col min="10" max="10" width="9.125"/>
+    <col min="12" max="12" width="9.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1">
         <v>45839</v>
       </c>
@@ -17613,8 +17620,14 @@
       <c r="K1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>45992</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45840</v>
       </c>
@@ -17645,8 +17658,14 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1">
+        <v>45993</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>45841</v>
       </c>
@@ -17677,8 +17696,14 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="1">
+        <v>45994</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>45842</v>
       </c>
@@ -17709,8 +17734,14 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="1">
+        <v>45995</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>45843</v>
       </c>
@@ -17741,8 +17772,14 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="1">
+        <v>45996</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>45844</v>
       </c>
@@ -17773,8 +17810,14 @@
       <c r="K6">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="1">
+        <v>45997</v>
+      </c>
+      <c r="M6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>45845</v>
       </c>
@@ -17805,8 +17848,14 @@
       <c r="K7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="1">
+        <v>45998</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>45846</v>
       </c>
@@ -17837,8 +17886,14 @@
       <c r="K8">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="1">
+        <v>45999</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>45847</v>
       </c>
@@ -17869,8 +17924,14 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="1">
+        <v>46000</v>
+      </c>
+      <c r="M9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>45848</v>
       </c>
@@ -17901,8 +17962,14 @@
       <c r="K10">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="1">
+        <v>46001</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>45849</v>
       </c>
@@ -17933,8 +18000,14 @@
       <c r="K11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="1">
+        <v>46002</v>
+      </c>
+      <c r="M11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>45850</v>
       </c>
@@ -17965,8 +18038,14 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="1">
+        <v>46003</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>45851</v>
       </c>
@@ -17997,8 +18076,14 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="1">
+        <v>46004</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>45852</v>
       </c>
@@ -18029,8 +18114,14 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="1">
+        <v>46005</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>45853</v>
       </c>
@@ -18061,8 +18152,14 @@
       <c r="K15">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="1">
+        <v>46006</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>45854</v>
       </c>
@@ -18093,8 +18190,14 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="1">
+        <v>46007</v>
+      </c>
+      <c r="M16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>45855</v>
       </c>
@@ -18125,8 +18228,14 @@
       <c r="K17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="1">
+        <v>46008</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>45856</v>
       </c>
@@ -18157,8 +18266,14 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="1">
+        <v>46009</v>
+      </c>
+      <c r="M18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>45857</v>
       </c>
@@ -18189,8 +18304,14 @@
       <c r="K19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="1">
+        <v>46010</v>
+      </c>
+      <c r="M19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>45858</v>
       </c>
@@ -18221,8 +18342,14 @@
       <c r="K20">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="1">
+        <v>46011</v>
+      </c>
+      <c r="M20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>45859</v>
       </c>
@@ -18253,8 +18380,14 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="1">
+        <v>46012</v>
+      </c>
+      <c r="M21">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>45860</v>
       </c>
@@ -18285,8 +18418,14 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="1">
+        <v>46013</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>45861</v>
       </c>
@@ -18317,8 +18456,14 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="1">
+        <v>46014</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>45862</v>
       </c>
@@ -18349,8 +18494,14 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="1">
+        <v>46015</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>45863</v>
       </c>
@@ -18381,8 +18532,14 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="1">
+        <v>46016</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>45864</v>
       </c>
@@ -18413,8 +18570,11 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="1">
+        <v>46017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>45865</v>
       </c>
@@ -18445,8 +18605,14 @@
       <c r="K27">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="1">
+        <v>46018</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>45866</v>
       </c>
@@ -18477,8 +18643,14 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="1">
+        <v>46019</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>45867</v>
       </c>
@@ -18509,8 +18681,14 @@
       <c r="K29">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="1">
+        <v>46020</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>45868</v>
       </c>
@@ -18541,8 +18719,14 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="1">
+        <v>46021</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>45869</v>
       </c>
@@ -18563,8 +18747,14 @@
         <v>0</v>
       </c>
       <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="1">
+        <v>46022</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="B32">
         <v>33.5</v>
       </c>
@@ -18593,8 +18783,8 @@
   <sheetPr/>
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView topLeftCell="B189" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+    <sheetView topLeftCell="B215" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -19602,8 +19792,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -20646,7 +20836,7 @@
   <sheetPr/>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="11"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -15952,42 +15952,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -16001,6 +15969,38 @@
       <sz val="11"/>
       <color theme="3" tint="-0.25"/>
       <name val="Chilanka"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -17575,8 +17575,8 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -19792,8 +19792,8 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="2"/>
+    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="工时记录" sheetId="12" state="hidden" r:id="rId9"/>
     <sheet name="临时截图" sheetId="17" r:id="rId10"/>
     <sheet name="设置restful xdebug" sheetId="20" r:id="rId11"/>
-    <sheet name="月进度" sheetId="21" r:id="rId12"/>
+    <sheet name="2025月进度" sheetId="21" r:id="rId12"/>
+    <sheet name="2026月进度" sheetId="22" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -15959,16 +15960,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="Chilanka"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
-      <name val="Chilanka"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15979,27 +15993,14 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -17576,7 +17577,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -18573,6 +18574,9 @@
       <c r="L26" s="1">
         <v>46017</v>
       </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
@@ -18770,6 +18774,199 @@
       <c r="J32" s="1"/>
       <c r="K32">
         <v>41.5</v>
+      </c>
+      <c r="M32">
+        <v>38.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>46025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1">
+        <v>46049</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1">
+        <v>46052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1">
+        <v>46053</v>
       </c>
     </row>
   </sheetData>
@@ -18784,7 +18981,7 @@
   <dimension ref="A1:M316"/>
   <sheetViews>
     <sheetView topLeftCell="B215" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+      <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -19792,7 +19989,7 @@
   <sheetPr/>
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A47" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A47" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17970" firstSheet="1" activeTab="12"/>
+    <workbookView windowWidth="31770" windowHeight="17970" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -15953,6 +15953,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -15967,18 +15992,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -15986,21 +15999,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF212121"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -18791,7 +18791,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="1"/>
@@ -18894,77 +18894,83 @@
         <v>46038</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>46039</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>46040</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>46041</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>46042</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>46043</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>46044</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>46045</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>46046</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>46047</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>46048</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>46049</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>46050</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>46051</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>46052</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>46053</v>
       </c>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -15953,12 +15953,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="AR PL UKai CN"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="Chilanka"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -15978,24 +15980,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
-      <name val="Chilanka"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -18788,189 +18788,297 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>46023</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>46024</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="1">
+        <v>46055</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>46025</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="1">
+        <v>46056</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>46026</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="1">
+        <v>46057</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>46027</v>
       </c>
       <c r="B5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="1">
+        <v>46058</v>
+      </c>
+      <c r="D5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>46028</v>
       </c>
       <c r="B6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1">
+        <v>46059</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>46029</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1">
+        <v>46060</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>46030</v>
       </c>
       <c r="B8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1">
+        <v>46061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>46031</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1">
+        <v>46062</v>
+      </c>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>46032</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1">
+        <v>46063</v>
+      </c>
+      <c r="D10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>46033</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>46034</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1">
+        <v>46065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>46035</v>
       </c>
       <c r="B13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="1">
+        <v>46066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>46036</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1">
+        <v>46067</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>46037</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1">
+        <v>46068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>46038</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>46039</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1">
+        <v>46070</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>46040</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>46041</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>46042</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>46043</v>
       </c>
       <c r="B21">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>46044</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1">
+        <v>46075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>46045</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>46046</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1">
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>46047</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>46048</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1">
+        <v>46079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>46049</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1">
+        <v>46080</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>46050</v>
       </c>
       <c r="B28">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1">
+        <v>46081</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>46051</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>46052</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>46053</v>
       </c>

--- a/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
+++ b/pa-temp-fix-system.com/beifen/工作日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31770" windowHeight="17970" firstSheet="1" activeTab="12"/>
+    <workbookView windowWidth="31770" windowHeight="17970" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="分支管理" sheetId="9" state="hidden" r:id="rId1"/>
@@ -15315,12 +15315,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>技嘉</t>
     </r>
     <r>
@@ -15732,6 +15726,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Chilanka"/>
       <charset val="134"/>
@@ -15749,12 +15749,6 @@
       <color rgb="FF800080"/>
       <name val="Chilanka"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -15953,33 +15947,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
-      <name val="Chilanka"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="AR PL UKai CN"/>
@@ -15994,6 +15961,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.25"/>
+      <name val="Chilanka"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
@@ -16001,6 +15982,19 @@
     <font>
       <sz val="9"/>
       <color rgb="FF212121"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="AR PL UKai CN"/>
       <charset val="134"/>
     </font>
@@ -16474,22 +16468,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -16500,9 +16497,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -16531,7 +16525,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -16556,7 +16550,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -18790,7 +18784,7 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -19129,7 +19123,7 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -19169,13 +19163,13 @@
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -19191,10 +19185,10 @@
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -19210,7 +19204,7 @@
       <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -19299,7 +19293,7 @@
       <c r="B36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -19340,13 +19334,13 @@
       <c r="B49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M49" s="8" t="s">
+      <c r="M49" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -19354,7 +19348,7 @@
       <c r="B51" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -19362,7 +19356,7 @@
       <c r="B52" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -19438,7 +19432,7 @@
       <c r="C70" s="15"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -19446,7 +19440,7 @@
       <c r="B72" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -19522,7 +19516,7 @@
       <c r="B92" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="7" t="s">
         <v>93</v>
       </c>
     </row>
@@ -19530,7 +19524,7 @@
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -19558,7 +19552,7 @@
       </c>
     </row>
     <row r="109" ht="112.5" spans="2:3">
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -19655,7 +19649,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="B151" s="29"/>
-      <c r="C151" s="7" t="s">
+      <c r="C151" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -19671,7 +19665,7 @@
       <c r="A157" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -19744,7 +19738,7 @@
       <c r="B179" s="3">
         <v>221</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="7" t="s">
         <v>142</v>
       </c>
     </row>
@@ -19814,7 +19808,7 @@
       </c>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="7" t="s">
         <v>156</v>
       </c>
     </row>
@@ -19844,7 +19838,7 @@
       </c>
     </row>
     <row r="215" ht="158.25" spans="2:7">
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C215" s="3" t="s">
@@ -19868,10 +19862,10 @@
       <c r="C221" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D221" s="8" t="s">
+      <c r="D221" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G221" s="8" t="s">
+      <c r="G221" s="9" t="s">
         <v>169</v>
       </c>
     </row>
@@ -19882,12 +19876,12 @@
       <c r="C222" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D222" s="8" t="s">
+      <c r="D222" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="226" ht="131.25" spans="1:2">
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -19903,7 +19897,7 @@
       <c r="A234" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="7" t="s">
         <v>177</v>
       </c>
     </row>
@@ -19948,12 +19942,12 @@
       <c r="B256" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="D256" s="8" t="s">
+      <c r="D256" s="9" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="258" ht="313.5" spans="1:4">
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="9" t="s">
         <v>188</v>
       </c>
     </row>
@@ -19977,7 +19971,7 @@
       <c r="A264" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B264" s="9" t="s">
         <v>194</v>
       </c>
     </row>
@@ -19990,18 +19984,18 @@
       <c r="A269" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B269" s="8" t="s">
+      <c r="B269" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D269" s="8" t="s">
+      <c r="D269" s="9" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="274" ht="409.5" spans="1:3">
-      <c r="B274" s="8" t="s">
+      <c r="B274" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C274" s="8" t="s">
+      <c r="C274" s="9" t="s">
         <v>200</v>
       </c>
     </row>
@@ -20159,7 +20153,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>3010</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -20170,7 +20164,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>3013</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -20181,7 +20175,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>3015</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -20215,7 +20209,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>3022</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -20229,7 +20223,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>3023</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -20249,7 +20243,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="11">
+      <c r="A9" s="12">
         <v>3028</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -20261,18 +20255,18 @@
       <c r="D9" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="11">
+      <c r="A10" s="12">
         <v>3031</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -20284,16 +20278,16 @@
       <c r="D10" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>3033</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -20311,12 +20305,12 @@
       <c r="F11" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3">
@@ -20337,12 +20331,12 @@
       <c r="F12" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3">
@@ -20363,12 +20357,12 @@
       <c r="F13" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3">
@@ -20380,12 +20374,12 @@
       <c r="C14" s="3">
         <v>30045</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3">
@@ -20431,7 +20425,7 @@
       <c r="B18" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="4" t="s">
         <v>249</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -20447,7 +20441,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>252</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -20489,7 +20483,7 @@
       </c>
     </row>
     <row r="28" ht="37.5" spans="1:12">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>258</v>
       </c>
       <c r="D28" s="15"/>
@@ -20505,7 +20499,7 @@
       </c>
     </row>
     <row r="30" ht="93.75" spans="1:12">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>261</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -20539,16 +20533,16 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="D35" s="7"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" ht="93.75" spans="2:7">
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="9" t="s">
         <v>270</v>
       </c>
     </row>
@@ -20573,10 +20567,10 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C43" s="11"/>
+      <c r="C43" s="12"/>
       <c r="F43" s="3" t="s">
         <v>276</v>
       </c>
@@ -20585,10 +20579,10 @@
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="11"/>
+      <c r="C44" s="12"/>
       <c r="F44" s="3" t="s">
         <v>279</v>
       </c>
@@ -20609,7 +20603,7 @@
       </c>
     </row>
     <row r="49" ht="75" spans="1:4">
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>283</v>
       </c>
     </row>
@@ -20617,7 +20611,7 @@
       <c r="A50" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -20625,12 +20619,12 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="4" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="4" t="s">
         <v>288</v>
       </c>
     </row>
@@ -20646,7 +20640,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -20654,7 +20648,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>294</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -20737,7 +20731,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="7" t="s">
         <v>302</v>
       </c>
     </row>
@@ -20768,7 +20762,7 @@
       <c r="C87" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="8" t="s">
         <v>309</v>
       </c>
     </row>
@@ -20778,15 +20772,15 @@
       </c>
     </row>
     <row r="94" ht="112.5" spans="2:4">
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="97" ht="243" spans="2:4">
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>313</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -20797,10 +20791,10 @@
       </c>
     </row>
     <row r="98" ht="262.5" spans="2:4">
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="4" t="s">
         <v>317</v>
       </c>
     </row>
@@ -20813,10 +20807,10 @@
       </c>
     </row>
     <row r="105" ht="393.75" spans="2:4">
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="9" t="s">
         <v>321</v>
       </c>
     </row>
@@ -20896,12 +20890,12 @@
       <c r="B129" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="9" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="131" ht="110.25" spans="2:4">
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="9" t="s">
         <v>330</v>
       </c>
     </row>
@@ -20911,7 +20905,7 @@
       </c>
     </row>
     <row r="134" ht="225" spans="2:4">
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="9" t="s">
         <v>332</v>
       </c>
       <c r="D134" s="3" t="s">
@@ -21012,25 +21006,25 @@
       </c>
     </row>
     <row r="14" ht="356.25" spans="1:3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="17" ht="131.25" spans="1:1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="19" ht="225" spans="1:1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="21" ht="112.5" spans="1:1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>348</v>
       </c>
     </row>
@@ -21059,27 +21053,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>353</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>1</v>
       </c>
     </row>
@@ -21087,7 +21081,7 @@
       <c r="B3" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -21095,7 +21089,7 @@
       <c r="B4" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>0.8</v>
       </c>
     </row>
@@ -21103,7 +21097,7 @@
       <c r="B5" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
     </row>
@@ -21111,7 +21105,7 @@
       <c r="B6" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
     </row>
@@ -21127,12 +21121,12 @@
       <c r="B8" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>353</v>
       </c>
     </row>
@@ -21165,7 +21159,7 @@
       <c r="B1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>363</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -21179,7 +21173,7 @@
       <c r="B2" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>367</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -21193,7 +21187,7 @@
       <c r="B3" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>371</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -21207,7 +21201,7 @@
       <c r="B4" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -21221,7 +21215,7 @@
       <c r="B5" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>379</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -21232,12 +21226,12 @@
       </c>
     </row>
     <row r="7" ht="37.5" spans="2:7">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>382</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -21245,7 +21239,7 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>384</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -21253,7 +21247,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="D15" s="8"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="3" t="s">
@@ -21448,7 +21442,7 @@
       <c r="B53" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>434</v>
       </c>
     </row>
@@ -21523,7 +21517,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="7" t="s">
         <v>451</v>
       </c>
     </row>
@@ -21691,8 +21685,8 @@
   <sheetPr/>
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
@@ -21728,7 +21722,7 @@
       <c r="A4" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>483</v>
       </c>
       <c r="C4" s="3">
@@ -21813,11 +21807,11 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6">
         <f>SUM(C2:C11)</f>
         <v>8829</v>
       </c>
